--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>745560.01782223</v>
+        <v>758191.1449340014</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13360835.96253918</v>
+        <v>12049526.89607446</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3999173.134613249</v>
+        <v>2713959.118571169</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7053297.811301906</v>
+        <v>7578908.039609575</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>294.6051902532168</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>24.1295862066223</v>
       </c>
     </row>
     <row r="3">
@@ -826,13 +828,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>35.92447719641163</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -874,10 +876,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>109.826847404852</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
         <v>240.1382575886529</v>
@@ -896,16 +898,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
-        <v>60.80143448469315</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
         <v>400.2956717864458</v>
@@ -914,7 +916,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +949,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>56.27005501113135</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1057,7 +1059,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>6.132873868425349</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -1099,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
@@ -1117,7 +1119,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>192.9528124158203</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1139,16 +1141,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>158.3391972023367</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>322.3736993421153</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>8.209635605837954</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1306,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1382,10 +1384,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>135.1167527563781</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>140.0871666311209</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1581,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>180.0196592840957</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>95.38838944228462</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>179.3267604781945</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>51.58543740429418</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>103.3236211855919</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
         <v>218.7163152458132</v>
@@ -1901,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2002,19 +2004,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>104.5306907528632</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
         <v>142.3583058069271</v>
@@ -2062,13 +2064,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>2.12709494609626</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>34.54790254396345</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458144</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2239,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>12.78161372714469</v>
       </c>
       <c r="F22" t="n">
-        <v>165.9846034601192</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2479,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>96.44420510686429</v>
+        <v>104.9037564455526</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>106.0606729676881</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>102.1026425880272</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>104.9037564455521</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3013,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>240.1382575886529</v>
+        <v>128.2005997690989</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>34.54790254396433</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>74.07475062513896</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3436,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>11.12043047005107</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>107.5474019937926</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3557,7 +3559,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>255.771360309553</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
@@ -3661,16 +3663,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>102.1509188080621</v>
+        <v>123.0673923170405</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3740,19 +3742,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>76.51295937501395</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.8896947407055</v>
@@ -3794,7 +3796,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -3803,7 +3805,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>26.25353194072963</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3901,22 +3903,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>51.58543740429418</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>186.1320522797926</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>177.4149921605826</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>218.7163152458132</v>
@@ -4040,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4138,13 +4140,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>49.30653966551946</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1089.133930720603</v>
+        <v>1780.689568770218</v>
       </c>
       <c r="C2" t="n">
-        <v>1089.133930720603</v>
+        <v>1353.788838783518</v>
       </c>
       <c r="D2" t="n">
-        <v>1089.133930720603</v>
+        <v>930.4962179685185</v>
       </c>
       <c r="E2" t="n">
-        <v>791.5529304648283</v>
+        <v>504.5192781163761</v>
       </c>
       <c r="F2" t="n">
-        <v>791.5529304648283</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="G2" t="n">
-        <v>387.2138680542769</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H2" t="n">
-        <v>89.34548952831176</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K2" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L2" t="n">
-        <v>728.2502693850971</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M2" t="n">
-        <v>1402.051920498411</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="N2" t="n">
-        <v>1931.072927593931</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O2" t="n">
-        <v>2604.874578707245</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2604.874578707245</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2604.874578707245</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V2" t="n">
-        <v>2722.430913589148</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W2" t="n">
-        <v>2326.039563889495</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="X2" t="n">
-        <v>1914.319565057242</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Y2" t="n">
-        <v>1508.982295012133</v>
+        <v>2200.537933061748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621.5721093032382</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>504.066205820743</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>400.226247336028</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>295.5243136089652</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8784832918694</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>107.8247115094734</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>61.8952612336948</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>333.5927505132859</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>924.0776770816254</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L3" t="n">
-        <v>1398.990771989513</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="M3" t="n">
-        <v>1398.990771989513</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N3" t="n">
-        <v>1398.990771989513</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O3" t="n">
-        <v>1398.990771989513</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="P3" t="n">
-        <v>1398.990771989513</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q3" t="n">
-        <v>1863.136248852293</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
-        <v>1863.136248852293</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>1781.812001413547</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>1639.932065711226</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1455.163869630862</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1250.190730770128</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1053.669353603346</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>890.1920073700086</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>750.499118723301</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1137.62974079602</v>
+        <v>682.0516858538774</v>
       </c>
       <c r="C4" t="n">
-        <v>965.6571776749358</v>
+        <v>510.0791227327934</v>
       </c>
       <c r="D4" t="n">
-        <v>802.3404048017065</v>
+        <v>346.7623498595641</v>
       </c>
       <c r="E4" t="n">
-        <v>636.1321989545601</v>
+        <v>180.5541440124177</v>
       </c>
       <c r="F4" t="n">
-        <v>464.2704247291205</v>
+        <v>180.5541440124177</v>
       </c>
       <c r="G4" t="n">
-        <v>298.0134550233526</v>
+        <v>180.5541440124177</v>
       </c>
       <c r="H4" t="n">
-        <v>154.217186531507</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I4" t="n">
-        <v>54.44861827178296</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>111.939946495941</v>
+        <v>101.9895532734058</v>
       </c>
       <c r="K4" t="n">
-        <v>338.4675477017781</v>
+        <v>328.5171544792431</v>
       </c>
       <c r="L4" t="n">
-        <v>693.1568689961989</v>
+        <v>683.2064757736639</v>
       </c>
       <c r="M4" t="n">
-        <v>1084.34266396645</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1461.834174842485</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.262303522249</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2107.86151544415</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
-        <v>2234.861645684911</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T4" t="n">
-        <v>2187.823032372085</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="U4" t="n">
-        <v>1907.638583872389</v>
+        <v>1897.688190649854</v>
       </c>
       <c r="V4" t="n">
-        <v>1907.638583872389</v>
+        <v>1615.976723257883</v>
       </c>
       <c r="W4" t="n">
-        <v>1796.702374372538</v>
+        <v>1341.124319430396</v>
       </c>
       <c r="X4" t="n">
-        <v>1554.138477818344</v>
+        <v>1098.560422876201</v>
       </c>
       <c r="Y4" t="n">
-        <v>1327.795709508086</v>
+        <v>872.2176545659431</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>818.0716495968784</v>
+        <v>2516.694910195414</v>
       </c>
       <c r="C5" t="n">
-        <v>818.0716495968784</v>
+        <v>2089.794180208714</v>
       </c>
       <c r="D5" t="n">
-        <v>756.6560592082994</v>
+        <v>1666.501559393715</v>
       </c>
       <c r="E5" t="n">
-        <v>756.6560592082994</v>
+        <v>1240.524619541572</v>
       </c>
       <c r="F5" t="n">
-        <v>756.6560592082994</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="G5" t="n">
-        <v>352.3169967977481</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H5" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I5" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J5" t="n">
-        <v>54.44861827178296</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K5" t="n">
-        <v>54.44861827178296</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L5" t="n">
-        <v>728.2502693850971</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="M5" t="n">
-        <v>1402.051920498411</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="N5" t="n">
-        <v>1402.051920498411</v>
+        <v>1787.740533201523</v>
       </c>
       <c r="O5" t="n">
-        <v>2048.629262475834</v>
+        <v>2632.885183352335</v>
       </c>
       <c r="P5" t="n">
-        <v>2722.430913589148</v>
+        <v>3341.164462510263</v>
       </c>
       <c r="Q5" t="n">
-        <v>2722.430913589148</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="R5" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S5" t="n">
-        <v>2618.063619462288</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="T5" t="n">
-        <v>2397.138048506922</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="U5" t="n">
-        <v>2397.138048506922</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="V5" t="n">
-        <v>2039.648633633171</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="W5" t="n">
-        <v>1643.257283933518</v>
+        <v>3753.600543364306</v>
       </c>
       <c r="X5" t="n">
-        <v>1643.257283933518</v>
+        <v>3341.880544532054</v>
       </c>
       <c r="Y5" t="n">
-        <v>1237.920013888408</v>
+        <v>2936.543274486944</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1480.866774040094</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C6" t="n">
-        <v>1363.360870557599</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D6" t="n">
-        <v>1259.520912072884</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E6" t="n">
-        <v>1154.818978345821</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F6" t="n">
-        <v>1061.173148028725</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G6" t="n">
-        <v>967.1193762463289</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H6" t="n">
-        <v>913.7432830086385</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I6" t="n">
-        <v>913.7432830086385</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J6" t="n">
-        <v>913.7432830086385</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K6" t="n">
-        <v>913.7432830086385</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L6" t="n">
-        <v>913.7432830086385</v>
+        <v>281.3047610684671</v>
       </c>
       <c r="M6" t="n">
-        <v>1374.82761136252</v>
+        <v>281.3047610684671</v>
       </c>
       <c r="N6" t="n">
-        <v>2048.629262475834</v>
+        <v>281.3047610684671</v>
       </c>
       <c r="O6" t="n">
-        <v>2722.430913589148</v>
+        <v>1170.786039079939</v>
       </c>
       <c r="P6" t="n">
-        <v>2722.430913589148</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q6" t="n">
-        <v>2722.430913589148</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R6" t="n">
-        <v>2722.430913589148</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S6" t="n">
-        <v>2641.106666150403</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T6" t="n">
-        <v>2499.226730448081</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U6" t="n">
-        <v>2314.458534367718</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V6" t="n">
-        <v>2109.485395506984</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W6" t="n">
-        <v>1912.964018340201</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X6" t="n">
-        <v>1749.486672106864</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y6" t="n">
-        <v>1609.793783460156</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>326.189749652591</v>
+        <v>519.5488518812829</v>
       </c>
       <c r="C7" t="n">
-        <v>154.217186531507</v>
+        <v>347.5762887601988</v>
       </c>
       <c r="D7" t="n">
-        <v>154.217186531507</v>
+        <v>184.2595158869696</v>
       </c>
       <c r="E7" t="n">
-        <v>154.217186531507</v>
+        <v>184.2595158869696</v>
       </c>
       <c r="F7" t="n">
-        <v>154.217186531507</v>
+        <v>184.2595158869696</v>
       </c>
       <c r="G7" t="n">
-        <v>154.217186531507</v>
+        <v>184.2595158869696</v>
       </c>
       <c r="H7" t="n">
-        <v>154.217186531507</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I7" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J7" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K7" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L7" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M7" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N7" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O7" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P7" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q7" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R7" t="n">
-        <v>2187.823032372085</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S7" t="n">
-        <v>2017.687984891219</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="T7" t="n">
-        <v>1774.348637117119</v>
+        <v>2015.369805176955</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.164188617424</v>
+        <v>1735.18535667726</v>
       </c>
       <c r="V7" t="n">
-        <v>1212.452721225452</v>
+        <v>1453.473889285288</v>
       </c>
       <c r="W7" t="n">
-        <v>937.6003173979655</v>
+        <v>1178.621485457801</v>
       </c>
       <c r="X7" t="n">
-        <v>742.6984866749146</v>
+        <v>936.0575889036064</v>
       </c>
       <c r="Y7" t="n">
-        <v>516.3557183646567</v>
+        <v>709.7148205933485</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1202.510347599448</v>
+        <v>2343.868243445584</v>
       </c>
       <c r="C8" t="n">
-        <v>775.6096176127478</v>
+        <v>1916.967513458884</v>
       </c>
       <c r="D8" t="n">
-        <v>352.3169967977481</v>
+        <v>1493.674892643884</v>
       </c>
       <c r="E8" t="n">
-        <v>352.3169967977481</v>
+        <v>1067.697952791741</v>
       </c>
       <c r="F8" t="n">
-        <v>352.3169967977481</v>
+        <v>642.5737709811417</v>
       </c>
       <c r="G8" t="n">
-        <v>352.3169967977481</v>
+        <v>238.2347085705903</v>
       </c>
       <c r="H8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J8" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K8" t="n">
-        <v>728.2502693850971</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L8" t="n">
-        <v>1374.82761136252</v>
+        <v>936.3823145515796</v>
       </c>
       <c r="M8" t="n">
-        <v>2048.629262475834</v>
+        <v>1905.296868083426</v>
       </c>
       <c r="N8" t="n">
-        <v>2722.430913589148</v>
+        <v>1905.296868083426</v>
       </c>
       <c r="O8" t="n">
-        <v>2722.430913589148</v>
+        <v>2750.441518234238</v>
       </c>
       <c r="P8" t="n">
-        <v>2722.430913589148</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="Q8" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R8" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S8" t="n">
-        <v>2618.063619462288</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T8" t="n">
-        <v>2618.063619462288</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="U8" t="n">
-        <v>2359.7087100587</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="V8" t="n">
-        <v>2034.07871072323</v>
+        <v>3557.316862022599</v>
       </c>
       <c r="W8" t="n">
-        <v>2034.07871072323</v>
+        <v>3160.925512322946</v>
       </c>
       <c r="X8" t="n">
-        <v>1622.358711890978</v>
+        <v>2749.205513490693</v>
       </c>
       <c r="Y8" t="n">
-        <v>1622.358711890978</v>
+        <v>2343.868243445584</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C9" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D9" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E9" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F9" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G9" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J9" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K9" t="n">
-        <v>644.9335448401225</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L9" t="n">
-        <v>1189.334597738979</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="M9" t="n">
-        <v>1189.334597738979</v>
+        <v>453.923725723811</v>
       </c>
       <c r="N9" t="n">
-        <v>1863.136248852293</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="O9" t="n">
-        <v>1863.136248852293</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="P9" t="n">
-        <v>1863.136248852293</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="Q9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R9" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S9" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T9" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U9" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V9" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W9" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X9" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y9" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.040692389239</v>
+        <v>1161.477248062164</v>
       </c>
       <c r="C10" t="n">
-        <v>567.068129268155</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="D10" t="n">
-        <v>558.7755680501368</v>
+        <v>826.1879120678506</v>
       </c>
       <c r="E10" t="n">
-        <v>392.5673622029904</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F10" t="n">
-        <v>220.7055879775508</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G10" t="n">
-        <v>54.44861827178296</v>
+        <v>321.8609622894966</v>
       </c>
       <c r="H10" t="n">
-        <v>54.44861827178296</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I10" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J10" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K10" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L10" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M10" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N10" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O10" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P10" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q10" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R10" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S10" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="T10" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="U10" t="n">
-        <v>1954.677197185216</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.965729793244</v>
+        <v>2095.402285466169</v>
       </c>
       <c r="W10" t="n">
-        <v>1398.113325965757</v>
+        <v>1820.549881638682</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.549429411563</v>
+        <v>1577.985985084488</v>
       </c>
       <c r="Y10" t="n">
-        <v>929.2066611013047</v>
+        <v>1351.64321677423</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1755.743090736225</v>
+        <v>2320.411228853706</v>
       </c>
       <c r="C11" t="n">
-        <v>1328.842360749525</v>
+        <v>1893.510498867006</v>
       </c>
       <c r="D11" t="n">
-        <v>905.5497399345252</v>
+        <v>1470.217878052007</v>
       </c>
       <c r="E11" t="n">
-        <v>479.5728000823827</v>
+        <v>1044.240938199864</v>
       </c>
       <c r="F11" t="n">
-        <v>54.44861827178296</v>
+        <v>619.1167563892643</v>
       </c>
       <c r="G11" t="n">
-        <v>54.44861827178296</v>
+        <v>214.7776939787129</v>
       </c>
       <c r="H11" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I11" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J11" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K11" t="n">
-        <v>728.2502693850971</v>
+        <v>793.804433513426</v>
       </c>
       <c r="L11" t="n">
-        <v>1402.051920498411</v>
+        <v>936.3823145515796</v>
       </c>
       <c r="M11" t="n">
-        <v>2075.853571611725</v>
+        <v>936.3823145515796</v>
       </c>
       <c r="N11" t="n">
-        <v>2722.430913589148</v>
+        <v>1905.296868083426</v>
       </c>
       <c r="O11" t="n">
-        <v>2722.430913589148</v>
+        <v>2750.441518234238</v>
       </c>
       <c r="P11" t="n">
-        <v>2722.430913589148</v>
+        <v>3458.720797392166</v>
       </c>
       <c r="Q11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.430913589148</v>
+        <v>3557.316862022599</v>
       </c>
       <c r="W11" t="n">
-        <v>2722.430913589148</v>
+        <v>3557.316862022599</v>
       </c>
       <c r="X11" t="n">
-        <v>2580.928725072864</v>
+        <v>3145.596863190346</v>
       </c>
       <c r="Y11" t="n">
-        <v>2175.591455027755</v>
+        <v>2740.259593145237</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C12" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D12" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E12" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F12" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G12" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K12" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L12" t="n">
-        <v>515.5329466256644</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="M12" t="n">
-        <v>1189.334597738979</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.136248852293</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="O12" t="n">
-        <v>1863.136248852293</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="P12" t="n">
-        <v>1863.136248852293</v>
+        <v>1763.408396108272</v>
       </c>
       <c r="Q12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R12" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S12" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T12" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U12" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V12" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W12" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X12" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y12" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1137.62974079602</v>
+        <v>302.375191087591</v>
       </c>
       <c r="C13" t="n">
-        <v>965.6571776749358</v>
+        <v>130.402627966507</v>
       </c>
       <c r="D13" t="n">
-        <v>802.3404048017065</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="E13" t="n">
-        <v>636.1321989545601</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="F13" t="n">
-        <v>464.2704247291205</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G13" t="n">
-        <v>298.0134550233526</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H13" t="n">
-        <v>154.217186531507</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I13" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J13" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K13" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L13" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M13" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N13" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O13" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P13" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q13" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R13" t="n">
-        <v>2187.823032372085</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S13" t="n">
-        <v>2017.687984891219</v>
+        <v>2041.535492157363</v>
       </c>
       <c r="T13" t="n">
-        <v>2017.687984891219</v>
+        <v>1798.196144383263</v>
       </c>
       <c r="U13" t="n">
-        <v>2017.687984891219</v>
+        <v>1518.011695883568</v>
       </c>
       <c r="V13" t="n">
-        <v>1735.976517499248</v>
+        <v>1236.300228491596</v>
       </c>
       <c r="W13" t="n">
-        <v>1735.976517499248</v>
+        <v>961.4478246641095</v>
       </c>
       <c r="X13" t="n">
-        <v>1554.138477818344</v>
+        <v>718.8839281099146</v>
       </c>
       <c r="Y13" t="n">
-        <v>1327.795709508086</v>
+        <v>492.5411597996566</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1733.181423160076</v>
+        <v>2218.826531669449</v>
       </c>
       <c r="C14" t="n">
-        <v>1733.181423160076</v>
+        <v>1791.925801682749</v>
       </c>
       <c r="D14" t="n">
-        <v>1309.888802345077</v>
+        <v>1368.633180867749</v>
       </c>
       <c r="E14" t="n">
-        <v>883.9118624929341</v>
+        <v>942.656241015607</v>
       </c>
       <c r="F14" t="n">
-        <v>458.7876806823343</v>
+        <v>517.5320592050072</v>
       </c>
       <c r="G14" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="H14" t="n">
-        <v>54.44861827178296</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J14" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K14" t="n">
-        <v>728.2502693850971</v>
+        <v>793.804433513426</v>
       </c>
       <c r="L14" t="n">
-        <v>728.2502693850971</v>
+        <v>1723.429481132703</v>
       </c>
       <c r="M14" t="n">
-        <v>1402.051920498411</v>
+        <v>2692.344034664549</v>
       </c>
       <c r="N14" t="n">
-        <v>2048.629262475834</v>
+        <v>3661.258588196396</v>
       </c>
       <c r="O14" t="n">
-        <v>2048.629262475834</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="P14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="Q14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="R14" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S14" t="n">
-        <v>2722.430913589148</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="T14" t="n">
-        <v>2722.430913589148</v>
+        <v>3714.087074241929</v>
       </c>
       <c r="U14" t="n">
-        <v>2722.430913589148</v>
+        <v>3455.732164838342</v>
       </c>
       <c r="V14" t="n">
-        <v>2722.430913589148</v>
+        <v>3455.732164838342</v>
       </c>
       <c r="W14" t="n">
-        <v>2326.039563889495</v>
+        <v>3455.732164838342</v>
       </c>
       <c r="X14" t="n">
-        <v>1914.319565057242</v>
+        <v>3044.012166006089</v>
       </c>
       <c r="Y14" t="n">
-        <v>1733.181423160076</v>
+        <v>2638.674895960979</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C15" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D15" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E15" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F15" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G15" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J15" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K15" t="n">
-        <v>54.44861827178296</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="L15" t="n">
-        <v>54.44861827178296</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="M15" t="n">
-        <v>728.2502693850971</v>
+        <v>668.7810521062665</v>
       </c>
       <c r="N15" t="n">
-        <v>1402.051920498411</v>
+        <v>1637.695605638113</v>
       </c>
       <c r="O15" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P15" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q15" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R15" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S15" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T15" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U15" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V15" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W15" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X15" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y15" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>278.5276838214469</v>
+        <v>1161.477248062164</v>
       </c>
       <c r="C16" t="n">
-        <v>106.5551207003629</v>
+        <v>989.5046849410799</v>
       </c>
       <c r="D16" t="n">
-        <v>54.44861827178296</v>
+        <v>826.1879120678506</v>
       </c>
       <c r="E16" t="n">
-        <v>54.44861827178296</v>
+        <v>659.9797062207041</v>
       </c>
       <c r="F16" t="n">
-        <v>54.44861827178296</v>
+        <v>488.1179319952645</v>
       </c>
       <c r="G16" t="n">
-        <v>54.44861827178296</v>
+        <v>321.8609622894966</v>
       </c>
       <c r="H16" t="n">
-        <v>54.44861827178296</v>
+        <v>178.064693797651</v>
       </c>
       <c r="I16" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J16" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K16" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L16" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M16" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N16" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O16" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P16" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q16" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R16" t="n">
-        <v>2187.823032372085</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S16" t="n">
-        <v>2017.687984891219</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="T16" t="n">
-        <v>1774.348637117119</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="U16" t="n">
-        <v>1494.164188617424</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="V16" t="n">
-        <v>1212.452721225452</v>
+        <v>2095.402285466169</v>
       </c>
       <c r="W16" t="n">
-        <v>937.6003173979655</v>
+        <v>1820.549881638682</v>
       </c>
       <c r="X16" t="n">
-        <v>695.0364208437705</v>
+        <v>1577.985985084488</v>
       </c>
       <c r="Y16" t="n">
-        <v>468.6936525335126</v>
+        <v>1351.64321677423</v>
       </c>
     </row>
     <row r="17">
@@ -5513,31 +5515,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>464.906172222724</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690842</v>
       </c>
       <c r="M17" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N17" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O17" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P17" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q17" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S17" t="n">
         <v>5010.768376164567</v>
@@ -5598,10 +5600,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>855.0038060102931</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
         <v>1910.990343986338</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>795.2884438199453</v>
+        <v>841.6494985835418</v>
       </c>
       <c r="C19" t="n">
-        <v>623.3158806988613</v>
+        <v>841.6494985835418</v>
       </c>
       <c r="D19" t="n">
-        <v>623.3158806988613</v>
+        <v>678.3327257103125</v>
       </c>
       <c r="E19" t="n">
-        <v>623.3158806988613</v>
+        <v>512.124519863166</v>
       </c>
       <c r="F19" t="n">
-        <v>451.4541064734217</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G19" t="n">
         <v>345.8675501573982</v>
@@ -5671,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5710,13 +5712,13 @@
         <v>1260.306816359498</v>
       </c>
       <c r="W19" t="n">
-        <v>985.454412532011</v>
+        <v>1258.158235605865</v>
       </c>
       <c r="X19" t="n">
-        <v>985.454412532011</v>
+        <v>1258.158235605865</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.454412532011</v>
+        <v>1031.815467295608</v>
       </c>
     </row>
     <row r="20">
@@ -5741,7 +5743,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,34 +5752,34 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2110.0395278175</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3086.290586304201</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O20" t="n">
-        <v>3931.435236455013</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P20" t="n">
-        <v>4639.71451561294</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q20" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
         <v>4789.842805209199</v>
@@ -5792,7 +5794,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5829,22 +5831,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1463.315149158289</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5884,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>843.1025083526774</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="C22" t="n">
-        <v>843.1025083526774</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="D22" t="n">
-        <v>679.7857354794481</v>
+        <v>281.4704040481062</v>
       </c>
       <c r="E22" t="n">
-        <v>679.7857354794481</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5953,7 +5955,7 @@
         <v>1033.268477064743</v>
       </c>
       <c r="Y22" t="n">
-        <v>1033.268477064743</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5975,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>1180.414480198223</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2184.700581617281</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N23" t="n">
-        <v>3160.951640103982</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6069,13 +6071,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1748.774177950213</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>446.1370507523521</v>
+        <v>3270.011978872611</v>
       </c>
       <c r="C25" t="n">
-        <v>274.1644876312681</v>
+        <v>3098.039415751527</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="I25" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J25" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K25" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L25" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M25" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N25" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O25" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P25" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S25" t="n">
-        <v>2185.297351822124</v>
+        <v>5009.172279942383</v>
       </c>
       <c r="T25" t="n">
-        <v>1941.958004048024</v>
+        <v>4765.832932168283</v>
       </c>
       <c r="U25" t="n">
-        <v>1661.773555548329</v>
+        <v>4485.648483668588</v>
       </c>
       <c r="V25" t="n">
-        <v>1380.062088156358</v>
+        <v>4203.937016276616</v>
       </c>
       <c r="W25" t="n">
-        <v>1105.20968432887</v>
+        <v>3929.08461244913</v>
       </c>
       <c r="X25" t="n">
-        <v>862.6457877746757</v>
+        <v>3686.520715894935</v>
       </c>
       <c r="Y25" t="n">
-        <v>636.3030194644177</v>
+        <v>3460.177947584677</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6212,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1180.414480198223</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>2110.0395278175</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N26" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O26" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6303,25 +6305,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N27" t="n">
-        <v>1021.509065974867</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>440.421457337036</v>
+        <v>409.4157547709034</v>
       </c>
       <c r="C28" t="n">
-        <v>440.421457337036</v>
+        <v>409.4157547709034</v>
       </c>
       <c r="D28" t="n">
-        <v>440.421457337036</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6382,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2179.581758406808</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1936.242410632708</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1656.057962133013</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1374.346494741041</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1099.494090913554</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>856.9301943593596</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>630.5874260491016</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K29" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L29" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6552,10 +6554,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1021.509065974867</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>437.5920494001418</v>
+        <v>3688.378786682159</v>
       </c>
       <c r="C31" t="n">
-        <v>265.6194862790578</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="D31" t="n">
-        <v>102.3027134058285</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S31" t="n">
-        <v>2176.752350469914</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T31" t="n">
-        <v>1933.413002695814</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U31" t="n">
-        <v>1653.228554196118</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V31" t="n">
-        <v>1371.517086804147</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W31" t="n">
-        <v>1096.66468297666</v>
+        <v>3817.874342004481</v>
       </c>
       <c r="X31" t="n">
-        <v>854.1007864224655</v>
+        <v>3688.378786682159</v>
       </c>
       <c r="Y31" t="n">
-        <v>627.7580181122075</v>
+        <v>3688.378786682159</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D32" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E32" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623582</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>464.9061722227241</v>
+        <v>651.5495334576507</v>
       </c>
       <c r="L32" t="n">
-        <v>1394.531219842001</v>
+        <v>1581.174581076927</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N32" t="n">
-        <v>2988.069926596602</v>
+        <v>3561.711740982686</v>
       </c>
       <c r="O32" t="n">
-        <v>3833.214576747414</v>
+        <v>4406.856391133499</v>
       </c>
       <c r="P32" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V32" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W32" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X32" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y32" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>669.4262044372838</v>
+        <v>3873.571530742372</v>
       </c>
       <c r="C33" t="n">
-        <v>551.9203009547886</v>
+        <v>3756.065627259877</v>
       </c>
       <c r="D33" t="n">
-        <v>448.0803424700736</v>
+        <v>3652.225668775162</v>
       </c>
       <c r="E33" t="n">
-        <v>343.3784087430108</v>
+        <v>3547.5237350481</v>
       </c>
       <c r="F33" t="n">
-        <v>249.7325784259149</v>
+        <v>3453.877904731004</v>
       </c>
       <c r="G33" t="n">
-        <v>155.678806643519</v>
+        <v>3359.824132948608</v>
       </c>
       <c r="H33" t="n">
-        <v>102.3027134058285</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="I33" t="n">
-        <v>109.7493563677404</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="J33" t="n">
-        <v>381.4468456473314</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="K33" t="n">
-        <v>971.931772215671</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="L33" t="n">
-        <v>1808.730580298577</v>
+        <v>3306.448039710918</v>
       </c>
       <c r="M33" t="n">
-        <v>1910.990343986338</v>
+        <v>4025.820723818556</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R33" t="n">
-        <v>1910.990343986338</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S33" t="n">
-        <v>1829.666096547593</v>
+        <v>5033.811422852681</v>
       </c>
       <c r="T33" t="n">
-        <v>1687.786160845271</v>
+        <v>4891.931487150359</v>
       </c>
       <c r="U33" t="n">
-        <v>1503.017964764908</v>
+        <v>4707.163291069996</v>
       </c>
       <c r="V33" t="n">
-        <v>1298.044825904174</v>
+        <v>4502.190152209263</v>
       </c>
       <c r="W33" t="n">
-        <v>1101.523448737391</v>
+        <v>4305.66877504248</v>
       </c>
       <c r="X33" t="n">
-        <v>938.0461025040541</v>
+        <v>4142.191428809143</v>
       </c>
       <c r="Y33" t="n">
-        <v>798.3532138573465</v>
+        <v>4002.498540162435</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1185.483835930065</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I34" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J34" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L34" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M34" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N34" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O34" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P34" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q34" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>4897.962009497734</v>
       </c>
       <c r="T34" t="n">
-        <v>2282.715740818957</v>
+        <v>4654.622661723634</v>
       </c>
       <c r="U34" t="n">
-        <v>2282.715740818957</v>
+        <v>4374.438213223939</v>
       </c>
       <c r="V34" t="n">
-        <v>2119.408873334071</v>
+        <v>4092.726745831968</v>
       </c>
       <c r="W34" t="n">
-        <v>1844.556469506584</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="X34" t="n">
-        <v>1601.992572952389</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="Y34" t="n">
-        <v>1375.649804642131</v>
+        <v>4017.903765402535</v>
       </c>
     </row>
     <row r="35">
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6923,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>456.2068044646703</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>1171.715112440169</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L35" t="n">
-        <v>2101.340160059446</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M35" t="n">
-        <v>3105.626261478504</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N35" t="n">
-        <v>3105.626261478504</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O35" t="n">
-        <v>3950.770911629316</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P35" t="n">
-        <v>4659.050190787244</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>775.6620294727279</v>
+        <v>4017.903765402535</v>
       </c>
       <c r="C37" t="n">
-        <v>603.6894663516439</v>
+        <v>3845.931202281451</v>
       </c>
       <c r="D37" t="n">
-        <v>440.3726934784146</v>
+        <v>3682.614429408221</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>3516.406223561075</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335635</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629867</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138022</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878298</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102456</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308293</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602714</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572965</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128764</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S37" t="n">
-        <v>2282.715740818957</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="T37" t="n">
-        <v>2271.4829827684</v>
+        <v>4824.757709204499</v>
       </c>
       <c r="U37" t="n">
-        <v>1991.298534268705</v>
+        <v>4824.757709204499</v>
       </c>
       <c r="V37" t="n">
-        <v>1709.587066876733</v>
+        <v>4543.046241812528</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.734663049246</v>
+        <v>4543.046241812528</v>
       </c>
       <c r="X37" t="n">
-        <v>1192.170766495052</v>
+        <v>4434.412502424859</v>
       </c>
       <c r="Y37" t="n">
-        <v>965.8279981847936</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="38">
@@ -7172,37 +7174,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3105.626261478504</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3950.770911629316</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787244</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409523</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291425</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164566</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7251,16 +7253,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.799010768326</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1910.990343986338</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>543.5554397491844</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C40" t="n">
-        <v>440.3726934784146</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="D40" t="n">
-        <v>440.3726934784146</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7354,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.628073325703</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>960.064176771508</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>733.72140846125</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>791.5529304648283</v>
+        <v>1340.37210466824</v>
       </c>
       <c r="C41" t="n">
-        <v>791.5529304648283</v>
+        <v>913.4713746815398</v>
       </c>
       <c r="D41" t="n">
-        <v>791.5529304648283</v>
+        <v>836.1855571310207</v>
       </c>
       <c r="E41" t="n">
-        <v>791.5529304648283</v>
+        <v>836.1855571310207</v>
       </c>
       <c r="F41" t="n">
-        <v>791.5529304648283</v>
+        <v>411.061375320421</v>
       </c>
       <c r="G41" t="n">
-        <v>387.2138680542769</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H41" t="n">
-        <v>89.34548952831176</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I41" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J41" t="n">
-        <v>417.0520770886785</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K41" t="n">
-        <v>417.0520770886785</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L41" t="n">
-        <v>1090.853728201993</v>
+        <v>305.9969056420136</v>
       </c>
       <c r="M41" t="n">
-        <v>1090.853728201993</v>
+        <v>1274.91145917386</v>
       </c>
       <c r="N41" t="n">
-        <v>1474.987448089748</v>
+        <v>2243.826012705706</v>
       </c>
       <c r="O41" t="n">
-        <v>2148.789099203062</v>
+        <v>3088.970662856519</v>
       </c>
       <c r="P41" t="n">
-        <v>2148.789099203062</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="Q41" t="n">
-        <v>2604.874578707245</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="R41" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S41" t="n">
-        <v>2618.063619462288</v>
+        <v>3810.438982769489</v>
       </c>
       <c r="T41" t="n">
-        <v>2397.138048506922</v>
+        <v>3589.513411814123</v>
       </c>
       <c r="U41" t="n">
-        <v>2397.138048506922</v>
+        <v>3331.158502410535</v>
       </c>
       <c r="V41" t="n">
-        <v>2039.648633633171</v>
+        <v>2973.669087536785</v>
       </c>
       <c r="W41" t="n">
-        <v>1643.257283933518</v>
+        <v>2577.277737837132</v>
       </c>
       <c r="X41" t="n">
-        <v>1616.738564801468</v>
+        <v>2165.557739004879</v>
       </c>
       <c r="Y41" t="n">
-        <v>1211.401294756358</v>
+        <v>1760.22046895977</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C42" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D42" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E42" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F42" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G42" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K42" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L42" t="n">
-        <v>728.2502693850971</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="M42" t="n">
-        <v>1402.051920498411</v>
+        <v>1047.210679069774</v>
       </c>
       <c r="N42" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="O42" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="P42" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="Q42" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R42" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S42" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T42" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U42" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V42" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W42" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X42" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y42" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1137.62974079602</v>
+        <v>302.375191087591</v>
       </c>
       <c r="C43" t="n">
-        <v>965.6571776749358</v>
+        <v>130.402627966507</v>
       </c>
       <c r="D43" t="n">
-        <v>802.3404048017065</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="E43" t="n">
-        <v>636.1321989545601</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="F43" t="n">
-        <v>464.2704247291205</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G43" t="n">
-        <v>298.0134550233526</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H43" t="n">
-        <v>154.217186531507</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I43" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J43" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K43" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L43" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M43" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N43" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O43" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P43" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q43" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R43" t="n">
-        <v>2234.861645684911</v>
+        <v>2211.670539638229</v>
       </c>
       <c r="S43" t="n">
-        <v>2234.861645684911</v>
+        <v>2041.535492157363</v>
       </c>
       <c r="T43" t="n">
-        <v>2234.861645684911</v>
+        <v>1798.196144383263</v>
       </c>
       <c r="U43" t="n">
-        <v>2234.861645684911</v>
+        <v>1518.011695883568</v>
       </c>
       <c r="V43" t="n">
-        <v>2071.554778200025</v>
+        <v>1236.300228491596</v>
       </c>
       <c r="W43" t="n">
-        <v>1796.702374372538</v>
+        <v>961.4478246641095</v>
       </c>
       <c r="X43" t="n">
-        <v>1554.138477818344</v>
+        <v>718.8839281099146</v>
       </c>
       <c r="Y43" t="n">
-        <v>1327.795709508086</v>
+        <v>492.5411597996566</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>791.5529304648283</v>
+        <v>2269.925033131739</v>
       </c>
       <c r="C44" t="n">
-        <v>791.5529304648283</v>
+        <v>1843.024303145039</v>
       </c>
       <c r="D44" t="n">
-        <v>791.5529304648283</v>
+        <v>1419.731682330039</v>
       </c>
       <c r="E44" t="n">
-        <v>791.5529304648283</v>
+        <v>1240.524619541572</v>
       </c>
       <c r="F44" t="n">
-        <v>791.5529304648283</v>
+        <v>815.4004377309723</v>
       </c>
       <c r="G44" t="n">
-        <v>387.2138680542769</v>
+        <v>411.061375320421</v>
       </c>
       <c r="H44" t="n">
-        <v>89.34548952831176</v>
+        <v>113.1929967944558</v>
       </c>
       <c r="I44" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J44" t="n">
-        <v>54.44861827178296</v>
+        <v>440.8995843548225</v>
       </c>
       <c r="K44" t="n">
-        <v>701.0259602492056</v>
+        <v>1156.407892330322</v>
       </c>
       <c r="L44" t="n">
-        <v>1374.82761136252</v>
+        <v>2086.032939949598</v>
       </c>
       <c r="M44" t="n">
-        <v>1374.82761136252</v>
+        <v>2828.3353884826</v>
       </c>
       <c r="N44" t="n">
-        <v>2048.629262475834</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="O44" t="n">
-        <v>2722.430913589148</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="P44" t="n">
-        <v>2722.430913589148</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="Q44" t="n">
-        <v>2722.430913589148</v>
+        <v>3797.249942014446</v>
       </c>
       <c r="R44" t="n">
-        <v>2722.430913589148</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="S44" t="n">
-        <v>2618.063619462288</v>
+        <v>3914.806276896349</v>
       </c>
       <c r="T44" t="n">
-        <v>2397.138048506922</v>
+        <v>3693.880705940982</v>
       </c>
       <c r="U44" t="n">
-        <v>2138.783139103334</v>
+        <v>3435.525796537395</v>
       </c>
       <c r="V44" t="n">
-        <v>1781.293724229584</v>
+        <v>3078.036381663645</v>
       </c>
       <c r="W44" t="n">
-        <v>1384.902374529931</v>
+        <v>2681.645031963992</v>
       </c>
       <c r="X44" t="n">
-        <v>1384.902374529931</v>
+        <v>2269.925033131739</v>
       </c>
       <c r="Y44" t="n">
-        <v>979.5651044848208</v>
+        <v>2269.925033131739</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>621.5721093032382</v>
+        <v>645.4196165693822</v>
       </c>
       <c r="C45" t="n">
-        <v>504.066205820743</v>
+        <v>527.913713086887</v>
       </c>
       <c r="D45" t="n">
-        <v>400.226247336028</v>
+        <v>424.073754602172</v>
       </c>
       <c r="E45" t="n">
-        <v>295.5243136089652</v>
+        <v>319.3718208751092</v>
       </c>
       <c r="F45" t="n">
-        <v>201.8784832918694</v>
+        <v>225.7259905580134</v>
       </c>
       <c r="G45" t="n">
-        <v>107.8247115094734</v>
+        <v>131.6722187756174</v>
       </c>
       <c r="H45" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I45" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J45" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="K45" t="n">
-        <v>644.9335448401225</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="L45" t="n">
-        <v>1318.735195953437</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="M45" t="n">
-        <v>1863.136248852293</v>
+        <v>706.6405622171594</v>
       </c>
       <c r="N45" t="n">
-        <v>1863.136248852293</v>
+        <v>706.6405622171594</v>
       </c>
       <c r="O45" t="n">
-        <v>1863.136248852293</v>
+        <v>706.6405622171594</v>
       </c>
       <c r="P45" t="n">
-        <v>1863.136248852293</v>
+        <v>1422.838279255657</v>
       </c>
       <c r="Q45" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="R45" t="n">
-        <v>1863.136248852293</v>
+        <v>1886.983756118437</v>
       </c>
       <c r="S45" t="n">
-        <v>1781.812001413547</v>
+        <v>1805.659508679691</v>
       </c>
       <c r="T45" t="n">
-        <v>1639.932065711226</v>
+        <v>1663.77957297737</v>
       </c>
       <c r="U45" t="n">
-        <v>1455.163869630862</v>
+        <v>1479.011376897006</v>
       </c>
       <c r="V45" t="n">
-        <v>1250.190730770128</v>
+        <v>1274.038238036272</v>
       </c>
       <c r="W45" t="n">
-        <v>1053.669353603346</v>
+        <v>1077.51686086949</v>
       </c>
       <c r="X45" t="n">
-        <v>890.1920073700086</v>
+        <v>914.0395146361526</v>
       </c>
       <c r="Y45" t="n">
-        <v>750.499118723301</v>
+        <v>774.346625989445</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.9461601132427</v>
+        <v>422.1304628844506</v>
       </c>
       <c r="C46" t="n">
-        <v>383.9735969921587</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="D46" t="n">
-        <v>220.6568241189294</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="E46" t="n">
-        <v>54.44861827178296</v>
+        <v>250.1578997633666</v>
       </c>
       <c r="F46" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="G46" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="H46" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="I46" t="n">
-        <v>54.44861827178296</v>
+        <v>78.29612553792698</v>
       </c>
       <c r="J46" t="n">
-        <v>111.939946495941</v>
+        <v>135.787453762085</v>
       </c>
       <c r="K46" t="n">
-        <v>338.4675477017781</v>
+        <v>362.3150549679222</v>
       </c>
       <c r="L46" t="n">
-        <v>693.1568689961989</v>
+        <v>717.0043762623429</v>
       </c>
       <c r="M46" t="n">
-        <v>1084.34266396645</v>
+        <v>1108.190171232594</v>
       </c>
       <c r="N46" t="n">
-        <v>1461.834174842485</v>
+        <v>1485.68168210863</v>
       </c>
       <c r="O46" t="n">
-        <v>1817.262303522249</v>
+        <v>1841.109810788393</v>
       </c>
       <c r="P46" t="n">
-        <v>2107.86151544415</v>
+        <v>2131.709022710294</v>
       </c>
       <c r="Q46" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="R46" t="n">
-        <v>2234.861645684911</v>
+        <v>2258.709152951055</v>
       </c>
       <c r="S46" t="n">
-        <v>2064.726598204046</v>
+        <v>2161.290763954223</v>
       </c>
       <c r="T46" t="n">
-        <v>1821.387250429946</v>
+        <v>1917.951416180123</v>
       </c>
       <c r="U46" t="n">
-        <v>1771.582664909219</v>
+        <v>1637.766967680427</v>
       </c>
       <c r="V46" t="n">
-        <v>1489.871197517248</v>
+        <v>1356.055500288456</v>
       </c>
       <c r="W46" t="n">
-        <v>1215.018793689761</v>
+        <v>1081.203096460969</v>
       </c>
       <c r="X46" t="n">
-        <v>972.4548971355664</v>
+        <v>838.6391999067741</v>
       </c>
       <c r="Y46" t="n">
-        <v>746.1121288253084</v>
+        <v>612.2964315965162</v>
       </c>
     </row>
   </sheetData>
@@ -7982,22 +7984,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>718.0389912967188</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N2" t="n">
-        <v>571.6442764662844</v>
+        <v>547.8252218830994</v>
       </c>
       <c r="O2" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
         <v>153.7764225027789</v>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>618.848654609434</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L3" t="n">
-        <v>502.225283590884</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M3" t="n">
         <v>23.09678051232798</v>
@@ -8073,13 +8075,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>98.17301358442491</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L5" t="n">
-        <v>718.9197708299099</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>674.9893610881851</v>
       </c>
       <c r="O5" t="n">
-        <v>690.4993855958451</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P5" t="n">
-        <v>718.1830902075183</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8298,19 +8300,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>22.51508671422956</v>
+        <v>227.574314522856</v>
       </c>
       <c r="M6" t="n">
-        <v>488.8385263243292</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>701.9507566108286</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>703.7796181195092</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8453,25 +8455,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>716.3723291920963</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>691.4204686724437</v>
+        <v>905.0657687090397</v>
       </c>
       <c r="M8" t="n">
-        <v>718.0389912967188</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N8" t="n">
-        <v>717.8873512317331</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
         <v>35.03264989479647</v>
@@ -8532,16 +8534,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>572.4151401474176</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>402.5185988819078</v>
       </c>
       <c r="N9" t="n">
-        <v>701.9507566108286</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
@@ -8550,7 +8552,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8690,25 +8692,25 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>718.9197708299099</v>
+        <v>182.3301040873235</v>
       </c>
       <c r="M11" t="n">
-        <v>718.0389912967188</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>690.388049074267</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8772,22 +8774,22 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L12" t="n">
-        <v>488.256832526231</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>701.9507566108286</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>147.5706342588424</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8927,22 +8929,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K14" t="n">
-        <v>716.3723291920963</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>718.0389912967188</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N14" t="n">
-        <v>690.388049074267</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O14" t="n">
-        <v>37.3909593560241</v>
+        <v>293.4997358206232</v>
       </c>
       <c r="P14" t="n">
-        <v>718.1830902075183</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
         <v>36.12467460459804</v>
@@ -9006,19 +9008,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>703.704508909615</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>701.9507566108286</v>
+        <v>1000.044597437629</v>
       </c>
       <c r="O15" t="n">
-        <v>488.9136355342238</v>
+        <v>274.9781023286099</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9161,13 +9163,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125397</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9246,13 +9248,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>22.51508671422956</v>
+        <v>782.8192206581333</v>
       </c>
       <c r="M18" t="n">
         <v>1089.749849175</v>
       </c>
       <c r="N18" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9407,7 +9409,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,13 +9418,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q20" t="n">
-        <v>397.6042905607445</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9479,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
@@ -9486,16 +9488,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>473.9680076978074</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>883.920771480625</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>716.4444307130257</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9726,7 +9728,7 @@
         <v>1089.749849175</v>
       </c>
       <c r="N24" t="n">
-        <v>185.1977413813447</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9872,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1051.861668373228</v>
+        <v>1027.22025995478</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,28 +9953,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>676.5644435722569</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>313.2411601358238</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10124,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>143.6953511146599</v>
       </c>
       <c r="P29" t="n">
-        <v>218.8019602116015</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10200,13 +10202,13 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>949.8342934347922</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O30" t="n">
         <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
@@ -10346,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>590.5593685239227</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>660.9541399377149</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N32" t="n">
         <v>1023.391803124043</v>
@@ -10367,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>126.3894711060262</v>
+        <v>749.7358553685286</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>386.8988393430025</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
         <v>758.5002654165255</v>
@@ -10595,16 +10597,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286663</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10832,19 +10834,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>394.7585026918616</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>100.0581876036175</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,19 +10901,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>730.3607534598153</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11057,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K41" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L41" t="n">
-        <v>718.9197708299099</v>
+        <v>268.3128304165489</v>
       </c>
       <c r="M41" t="n">
-        <v>37.43126289943181</v>
+        <v>1016.132832123519</v>
       </c>
       <c r="N41" t="n">
-        <v>425.293481306926</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O41" t="n">
-        <v>717.9986877533111</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11142,13 +11144,13 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>703.704508909615</v>
+        <v>1001.798349736415</v>
       </c>
       <c r="N42" t="n">
-        <v>487.0847740255433</v>
+        <v>869.5986615960297</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>688.8730270346301</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>718.9197708299099</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>37.43126289943181</v>
+        <v>787.2317159630702</v>
       </c>
       <c r="N44" t="n">
-        <v>717.8873512317331</v>
+        <v>1015.981192058533</v>
       </c>
       <c r="O44" t="n">
-        <v>717.9986877533111</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
@@ -11318,7 +11320,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,13 +11378,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>703.1228151115166</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>572.996833945516</v>
+        <v>657.7881306933709</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11391,10 +11393,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -22547,22 +22549,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>127.1119802004042</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>377.1543111380362</v>
       </c>
     </row>
     <row r="3">
@@ -22714,13 +22716,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>106.4338286105155</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22762,10 +22764,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>162.2770323843601</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -22784,16 +22786,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>358.2582601221565</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -22802,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22835,19 +22837,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>336.1573811915252</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22945,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>164.546123788675</v>
@@ -22957,7 +22959,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>136.2254319385018</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22987,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23005,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>47.18544517283263</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23027,16 +23029,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>136.5504975383688</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23069,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>31.54082138289766</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,7 +23184,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>153.473969538659</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23194,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23233,10 +23235,10 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>159.7729419843274</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -23315,13 +23317,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>267.5156322128094</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>60.1185983045572</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>123.3279258035286</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>221.9571368664641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>60.06370925584696</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.9767848431159</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>151.7645100615303</v>
       </c>
       <c r="F22" t="n">
-        <v>4.15855302306602</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24412,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>71.9894918991922</v>
+        <v>63.52994056050389</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>82.20363605725684</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>66.33105441802925</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>63.52994056050434</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>111.937657819554</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>198.0291291640731</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>229.7855238263079</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>132.5908555948604</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.10191868181103</v>
+        <v>47.1854451728326</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25567,7 +25569,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25628,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>342.5467352318357</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25682,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>381.3492669032005</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>229.5178283688221</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>244.3021782930384</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26026,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
@@ -26071,13 +26073,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>228.0760643491793</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490420.8290841919</v>
+        <v>440471.6979198889</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490420.8290841919</v>
+        <v>610130.8990018896</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490420.8290841918</v>
+        <v>610130.8990018895</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490420.8290841919</v>
+        <v>610130.8990018894</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490420.8290841918</v>
+        <v>610130.8990018895</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730639.5240786814</v>
+        <v>730639.5240786816</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>730639.5240786815</v>
+        <v>730639.5240786816</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730639.5240786815</v>
+        <v>730639.5240786816</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730639.5240786815</v>
+        <v>730639.5240786816</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>730639.5240786816</v>
+        <v>730639.5240786814</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>730639.5240786816</v>
+        <v>730639.5240786815</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490420.8290841918</v>
+        <v>610130.8990018896</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>490420.8290841919</v>
+        <v>610130.8990018896</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169761.056221451</v>
+        <v>152470.9723568845</v>
       </c>
       <c r="C2" t="n">
-        <v>169761.0562214509</v>
+        <v>211199.1573468078</v>
       </c>
       <c r="D2" t="n">
-        <v>169761.0562214509</v>
+        <v>211199.1573468078</v>
       </c>
       <c r="E2" t="n">
-        <v>169761.0562214509</v>
+        <v>211199.1573468077</v>
       </c>
       <c r="F2" t="n">
-        <v>169761.0562214509</v>
+        <v>211199.1573468077</v>
       </c>
       <c r="G2" t="n">
         <v>252913.6814118513</v>
       </c>
       <c r="H2" t="n">
-        <v>252913.6814118513</v>
+        <v>252913.6814118511</v>
       </c>
       <c r="I2" t="n">
-        <v>252913.6814118513</v>
+        <v>252913.6814118512</v>
       </c>
       <c r="J2" t="n">
-        <v>252913.6814118513</v>
+        <v>252913.6814118512</v>
       </c>
       <c r="K2" t="n">
         <v>252913.6814118513</v>
       </c>
       <c r="L2" t="n">
-        <v>252913.6814118513</v>
+        <v>252913.6814118512</v>
       </c>
       <c r="M2" t="n">
         <v>252913.6814118513</v>
       </c>
       <c r="N2" t="n">
-        <v>252913.6814118514</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="O2" t="n">
-        <v>169761.056221451</v>
+        <v>211199.1573468079</v>
       </c>
       <c r="P2" t="n">
-        <v>169761.056221451</v>
+        <v>211199.1573468077</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>228087.303763684</v>
+        <v>186404.7334147372</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>136488.8862029676</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163951.1208101861</v>
+        <v>82248.07044717245</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178076.9284887798</v>
+        <v>145533.6699348165</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>108731.2256621307</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.2570589421075</v>
+        <v>458.4532502675966</v>
       </c>
       <c r="C4" t="n">
-        <v>517.2570589421074</v>
+        <v>658.1886003676652</v>
       </c>
       <c r="D4" t="n">
-        <v>517.2570589421075</v>
+        <v>658.1886003676651</v>
       </c>
       <c r="E4" t="n">
-        <v>517.2570589421075</v>
+        <v>658.1886003676652</v>
       </c>
       <c r="F4" t="n">
-        <v>517.2570589421075</v>
+        <v>658.1886003676652</v>
       </c>
       <c r="G4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="H4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.060259943367</v>
       </c>
       <c r="I4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.060259943367</v>
       </c>
       <c r="J4" t="n">
         <v>800.0602599433671</v>
@@ -26445,19 +26447,19 @@
         <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
-        <v>800.0602599433672</v>
+        <v>800.060259943367</v>
       </c>
       <c r="M4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.060259943367</v>
       </c>
       <c r="O4" t="n">
-        <v>517.2570589421074</v>
+        <v>658.1886003676652</v>
       </c>
       <c r="P4" t="n">
-        <v>517.2570589421075</v>
+        <v>658.1886003676652</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75008.54988655505</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="C5" t="n">
-        <v>75008.54988655505</v>
+        <v>93132.6554088245</v>
       </c>
       <c r="D5" t="n">
-        <v>75008.54988655505</v>
+        <v>93132.6554088245</v>
       </c>
       <c r="E5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.0554088245</v>
       </c>
       <c r="F5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.0554088245</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.0554088245</v>
       </c>
       <c r="P5" t="n">
-        <v>41380.94988655505</v>
+        <v>59505.0554088245</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133852.0544877302</v>
+        <v>-101838.4653455484</v>
       </c>
       <c r="C6" t="n">
-        <v>94235.24927595376</v>
+        <v>-19080.57286535198</v>
       </c>
       <c r="D6" t="n">
-        <v>94235.24927595376</v>
+        <v>117408.3133376157</v>
       </c>
       <c r="E6" t="n">
-        <v>127862.8492759537</v>
+        <v>151035.9133376156</v>
       </c>
       <c r="F6" t="n">
-        <v>127862.8492759537</v>
+        <v>151035.9133376156</v>
       </c>
       <c r="G6" t="n">
-        <v>10412.43815329224</v>
+        <v>92115.48851630578</v>
       </c>
       <c r="H6" t="n">
+        <v>174363.5589634781</v>
+      </c>
+      <c r="I6" t="n">
+        <v>174363.5589634782</v>
+      </c>
+      <c r="J6" t="n">
+        <v>28829.88902866159</v>
+      </c>
+      <c r="K6" t="n">
+        <v>65632.33330134759</v>
+      </c>
+      <c r="L6" t="n">
+        <v>174363.5589634782</v>
+      </c>
+      <c r="M6" t="n">
+        <v>174363.5589634782</v>
+      </c>
+      <c r="N6" t="n">
         <v>174363.5589634783</v>
       </c>
-      <c r="I6" t="n">
-        <v>174363.5589634783</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-3713.369525301547</v>
-      </c>
-      <c r="K6" t="n">
-        <v>174363.5589634783</v>
-      </c>
-      <c r="L6" t="n">
-        <v>174363.5589634783</v>
-      </c>
-      <c r="M6" t="n">
-        <v>174363.5589634783</v>
-      </c>
-      <c r="N6" t="n">
-        <v>174363.5589634784</v>
-      </c>
       <c r="O6" t="n">
-        <v>127862.8492759538</v>
+        <v>151035.9133376157</v>
       </c>
       <c r="P6" t="n">
-        <v>127862.8492759538</v>
+        <v>151035.9133376156</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="D4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="E4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="F4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="P4" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>422.4737561084931</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>598.1761891755698</v>
+        <v>300.0823483487693</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.6077283972871</v>
+        <v>556.2278131155942</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>422.4737561084932</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>422.4737561084931</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>598.1761891755698</v>
+        <v>300.0823483487693</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34702,22 +34704,22 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>680.607728397287</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N2" t="n">
-        <v>534.3646536318383</v>
+        <v>510.5455990486534</v>
       </c>
       <c r="O2" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
         <v>118.7437726079824</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>596.4494207761006</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L3" t="n">
-        <v>479.7101968766545</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>637.709738253739</v>
       </c>
       <c r="O5" t="n">
-        <v>653.1084262398209</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P5" t="n">
-        <v>680.607728397287</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7417458120012</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>680.607728397287</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>653.1084262398208</v>
+        <v>866.7537262764168</v>
       </c>
       <c r="M8" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N8" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>549.900053433188</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>379.4218183695799</v>
       </c>
       <c r="N9" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>680.607728397287</v>
+        <v>144.0180616547006</v>
       </c>
       <c r="M11" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>653.1084262398209</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>465.7417458120015</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>124.8235959698639</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>680.607728397287</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N14" t="n">
-        <v>653.1084262398209</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>256.1087764645991</v>
       </c>
       <c r="P14" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O15" t="n">
-        <v>465.7417458120016</v>
+        <v>251.8062126063877</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35881,13 +35883,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799168</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,13 +35968,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>760.3041339439037</v>
       </c>
       <c r="M18" t="n">
         <v>1066.653068662672</v>
       </c>
       <c r="N18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36127,7 +36129,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,13 +36138,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q20" t="n">
-        <v>361.4796159561464</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>452.1971664929787</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>846.4895085811933</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>679.0534713570016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,7 +36448,7 @@
         <v>1066.653068662672</v>
       </c>
       <c r="N24" t="n">
-        <v>163.8547131678031</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>1014.430405473796</v>
+        <v>989.7889970553483</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>654.0493568580273</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>291.4703189309951</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36844,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>853.6814647988001</v>
+        <v>106.3043917586358</v>
       </c>
       <c r="P29" t="n">
-        <v>181.2265984013702</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,13 +36922,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>928.4912652212506</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O30" t="n">
         <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>554.7947677291133</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>623.5228770382831</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N32" t="n">
         <v>986.1121802895968</v>
@@ -37087,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>103.2926905936983</v>
+        <v>726.6390748562006</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>357.478879857416</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>722.7356646217162</v>
@@ -37315,16 +37317,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184349</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37552,19 +37554,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>357.4788798574156</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>62.4828257933862</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>707.2639729474873</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37777,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>680.607728397287</v>
+        <v>230.0007879839259</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N41" t="n">
-        <v>388.01385847248</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O41" t="n">
-        <v>680.607728397287</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37862,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7417458120016</v>
+        <v>848.2556333824881</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38014,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>653.1084262398208</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>680.607728397287</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>749.8004530636384</v>
       </c>
       <c r="N44" t="n">
-        <v>680.607728397287</v>
+        <v>978.7015692240873</v>
       </c>
       <c r="O44" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>680.607728397287</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>549.900053433188</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_0_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>758191.1449340014</v>
+        <v>756197.5140252633</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12049526.89607446</v>
+        <v>12157779.51246667</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2713959.118571169</v>
+        <v>2820057.50789716</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7578908.039609575</v>
+        <v>7562024.062220574</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -673,13 +673,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>16.48501624443103</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>24.1295862066223</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>38.99848463178057</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -831,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>35.92447719641163</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -885,7 +885,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,19 +898,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>347.5114430513336</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>56.27005501113135</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
         <v>407.6027988439302</v>
@@ -1059,22 +1059,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>6.132873868425349</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>148.3564681073331</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
@@ -1144,16 +1144,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>146.2544282090043</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>158.3391972023367</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>401.2838973446586</v>
@@ -1296,10 +1296,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1308,10 +1308,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>157.3854577076672</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1375,22 +1375,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>135.1167527563781</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>173.8749121714104</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1533,13 +1533,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1621,13 +1621,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>400.2956717864458</v>
+        <v>180.728788196922</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>95.38838944228462</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V16" t="n">
-        <v>161.6737988100371</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
         <v>272.1038797892121</v>
@@ -1903,7 +1903,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
-        <v>353.9145207250128</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -2004,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2064,10 +2064,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>2.12709494609626</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2101,7 +2101,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>34.54790254396345</v>
+        <v>34.54790254396433</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,16 +2244,16 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>12.78161372714469</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>104.9037564455526</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.0606729676881</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2964,13 +2964,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>128.2005997690989</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3249,13 +3249,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>74.07475062513896</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3429,7 +3429,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3438,13 +3438,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>40.84698832683137</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>107.5474019937926</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3663,7 +3663,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>123.0673923170405</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3745,22 +3745,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>76.51295937501395</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>186.5146679205615</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>51.58543740429418</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3985,7 +3985,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>177.4149921605826</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
@@ -3994,10 +3994,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>178.6464323367727</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686429</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.689568770218</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C2" t="n">
-        <v>1353.788838783518</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D2" t="n">
-        <v>930.4962179685185</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E2" t="n">
-        <v>504.5192781163761</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F2" t="n">
-        <v>79.39509630577632</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G2" t="n">
-        <v>79.39509630577632</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I2" t="n">
-        <v>44.49822504924753</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K2" t="n">
-        <v>44.49822504924753</v>
+        <v>434.501216159716</v>
       </c>
       <c r="L2" t="n">
-        <v>44.49822504924753</v>
+        <v>434.501216159716</v>
       </c>
       <c r="M2" t="n">
-        <v>595.1637600336857</v>
+        <v>1324.235963277119</v>
       </c>
       <c r="N2" t="n">
-        <v>1100.603903091853</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P2" t="n">
-        <v>1651.269438076291</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q2" t="n">
-        <v>2107.354917580474</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R2" t="n">
-        <v>2224.911252462377</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.911252462377</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.911252462377</v>
+        <v>2994.588561095176</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.911252462377</v>
+        <v>2994.588561095176</v>
       </c>
       <c r="X2" t="n">
-        <v>2224.911252462377</v>
+        <v>2582.868562262923</v>
       </c>
       <c r="Y2" t="n">
-        <v>2200.537933061748</v>
+        <v>2177.531292217814</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>611.6217160807028</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C3" t="n">
-        <v>494.1158125982075</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D3" t="n">
-        <v>390.2758541134926</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E3" t="n">
-        <v>285.5739203864298</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F3" t="n">
-        <v>191.928090069334</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G3" t="n">
-        <v>97.87431828693795</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H3" t="n">
-        <v>44.49822504924753</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I3" t="n">
-        <v>44.49822504924753</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K3" t="n">
-        <v>595.1637600336857</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L3" t="n">
-        <v>1145.829295018124</v>
+        <v>990.8506408059274</v>
       </c>
       <c r="M3" t="n">
-        <v>1145.829295018124</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N3" t="n">
-        <v>1145.829295018124</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O3" t="n">
-        <v>1145.829295018124</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P3" t="n">
-        <v>1696.494830002562</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q3" t="n">
-        <v>1771.166545545054</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R3" t="n">
-        <v>1853.185855629757</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S3" t="n">
-        <v>1771.861608191012</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T3" t="n">
-        <v>1629.98167248869</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U3" t="n">
-        <v>1445.213476408327</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V3" t="n">
-        <v>1240.240337547593</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W3" t="n">
-        <v>1043.71896038081</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X3" t="n">
-        <v>880.2416141474731</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y3" t="n">
-        <v>740.5487255007655</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.0516858538774</v>
+        <v>720.1317645086643</v>
       </c>
       <c r="C4" t="n">
-        <v>510.0791227327934</v>
+        <v>548.1592013875803</v>
       </c>
       <c r="D4" t="n">
-        <v>346.7623498595641</v>
+        <v>548.1592013875803</v>
       </c>
       <c r="E4" t="n">
-        <v>180.5541440124177</v>
+        <v>381.9509955404339</v>
       </c>
       <c r="F4" t="n">
-        <v>180.5541440124177</v>
+        <v>381.9509955404339</v>
       </c>
       <c r="G4" t="n">
-        <v>180.5541440124177</v>
+        <v>215.694025834666</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I4" t="n">
-        <v>44.49822504924753</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q4" t="n">
-        <v>2224.911252462377</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T4" t="n">
-        <v>2177.87263914955</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U4" t="n">
-        <v>1897.688190649854</v>
+        <v>1558.651941001288</v>
       </c>
       <c r="V4" t="n">
-        <v>1615.976723257883</v>
+        <v>1276.940473609317</v>
       </c>
       <c r="W4" t="n">
-        <v>1341.124319430396</v>
+        <v>1002.08806978183</v>
       </c>
       <c r="X4" t="n">
-        <v>1098.560422876201</v>
+        <v>759.5241732276346</v>
       </c>
       <c r="Y4" t="n">
-        <v>872.2176545659431</v>
+        <v>759.5241732276346</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2516.694910195414</v>
+        <v>1604.101469398726</v>
       </c>
       <c r="C5" t="n">
-        <v>2089.794180208714</v>
+        <v>1604.101469398726</v>
       </c>
       <c r="D5" t="n">
-        <v>1666.501559393715</v>
+        <v>1180.808848583726</v>
       </c>
       <c r="E5" t="n">
-        <v>1240.524619541572</v>
+        <v>1180.808848583726</v>
       </c>
       <c r="F5" t="n">
-        <v>815.4004377309723</v>
+        <v>755.6846667731261</v>
       </c>
       <c r="G5" t="n">
-        <v>411.061375320421</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H5" t="n">
-        <v>113.1929967944558</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I5" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J5" t="n">
-        <v>440.8995843548225</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K5" t="n">
-        <v>1156.407892330322</v>
+        <v>925.6836257888127</v>
       </c>
       <c r="L5" t="n">
-        <v>1156.407892330322</v>
+        <v>1815.418372906216</v>
       </c>
       <c r="M5" t="n">
-        <v>1156.407892330322</v>
+        <v>2705.153120023619</v>
       </c>
       <c r="N5" t="n">
-        <v>1787.740533201523</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="O5" t="n">
-        <v>2632.885183352335</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P5" t="n">
-        <v>3341.164462510263</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q5" t="n">
-        <v>3797.249942014446</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R5" t="n">
-        <v>3914.806276896349</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S5" t="n">
-        <v>3810.438982769489</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T5" t="n">
-        <v>3810.438982769489</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U5" t="n">
-        <v>3810.438982769489</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V5" t="n">
-        <v>3810.438982769489</v>
+        <v>3237.398452267271</v>
       </c>
       <c r="W5" t="n">
-        <v>3753.600543364306</v>
+        <v>2841.007102567618</v>
       </c>
       <c r="X5" t="n">
-        <v>3341.880544532054</v>
+        <v>2429.287103735365</v>
       </c>
       <c r="Y5" t="n">
-        <v>2936.543274486944</v>
+        <v>2023.949833690256</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C6" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D6" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E6" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F6" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G6" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H6" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I6" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J6" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K6" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L6" t="n">
-        <v>281.3047610684671</v>
+        <v>101.1158936885245</v>
       </c>
       <c r="M6" t="n">
-        <v>281.3047610684671</v>
+        <v>990.8506408059274</v>
       </c>
       <c r="N6" t="n">
-        <v>281.3047610684671</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O6" t="n">
-        <v>1170.786039079939</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P6" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q6" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R6" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S6" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T6" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U6" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V6" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W6" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X6" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y6" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.5488518812829</v>
+        <v>748.1972702422584</v>
       </c>
       <c r="C7" t="n">
-        <v>347.5762887601988</v>
+        <v>576.2247071211743</v>
       </c>
       <c r="D7" t="n">
-        <v>184.2595158869696</v>
+        <v>576.2247071211743</v>
       </c>
       <c r="E7" t="n">
-        <v>184.2595158869696</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="F7" t="n">
-        <v>184.2595158869696</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="G7" t="n">
-        <v>184.2595158869696</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H7" t="n">
-        <v>178.064693797651</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I7" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J7" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K7" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L7" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M7" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N7" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O7" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P7" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q7" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R7" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S7" t="n">
-        <v>2258.709152951055</v>
+        <v>2082.175737275084</v>
       </c>
       <c r="T7" t="n">
-        <v>2015.369805176955</v>
+        <v>1838.836389500983</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.18535667726</v>
+        <v>1688.981371210748</v>
       </c>
       <c r="V7" t="n">
-        <v>1453.473889285288</v>
+        <v>1407.269903818777</v>
       </c>
       <c r="W7" t="n">
-        <v>1178.621485457801</v>
+        <v>1407.269903818777</v>
       </c>
       <c r="X7" t="n">
-        <v>936.0575889036064</v>
+        <v>1164.706007264582</v>
       </c>
       <c r="Y7" t="n">
-        <v>709.7148205933485</v>
+        <v>938.3632389543241</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2343.868243445584</v>
+        <v>1828.565043444817</v>
       </c>
       <c r="C8" t="n">
-        <v>1916.967513458884</v>
+        <v>1401.664313458117</v>
       </c>
       <c r="D8" t="n">
-        <v>1493.674892643884</v>
+        <v>978.3716926431177</v>
       </c>
       <c r="E8" t="n">
-        <v>1067.697952791741</v>
+        <v>552.3947527909753</v>
       </c>
       <c r="F8" t="n">
-        <v>642.5737709811417</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="G8" t="n">
-        <v>238.2347085705903</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H8" t="n">
-        <v>78.29612553792698</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I8" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J8" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="K8" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="L8" t="n">
-        <v>936.3823145515796</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="M8" t="n">
-        <v>1905.296868083426</v>
+        <v>578.0873763287929</v>
       </c>
       <c r="N8" t="n">
-        <v>1905.296868083426</v>
+        <v>1467.822123446196</v>
       </c>
       <c r="O8" t="n">
-        <v>2750.441518234238</v>
+        <v>2312.966773597008</v>
       </c>
       <c r="P8" t="n">
-        <v>3458.720797392166</v>
+        <v>3021.246052754936</v>
       </c>
       <c r="Q8" t="n">
-        <v>3914.806276896349</v>
+        <v>3477.331532259119</v>
       </c>
       <c r="R8" t="n">
-        <v>3914.806276896349</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S8" t="n">
-        <v>3914.806276896349</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T8" t="n">
-        <v>3914.806276896349</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U8" t="n">
-        <v>3914.806276896349</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V8" t="n">
-        <v>3557.316862022599</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W8" t="n">
-        <v>3160.925512322946</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="X8" t="n">
-        <v>2749.205513490693</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="Y8" t="n">
-        <v>2343.868243445584</v>
+        <v>2248.413407736347</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C9" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D9" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E9" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F9" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G9" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H9" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I9" t="n">
-        <v>78.29612553792698</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J9" t="n">
-        <v>78.29612553792698</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K9" t="n">
-        <v>78.29612553792698</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="L9" t="n">
-        <v>78.29612553792698</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="M9" t="n">
-        <v>453.923725723811</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="N9" t="n">
-        <v>1422.838279255657</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="O9" t="n">
-        <v>1422.838279255657</v>
+        <v>1164.387670884832</v>
       </c>
       <c r="P9" t="n">
-        <v>1422.838279255657</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q9" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R9" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S9" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T9" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U9" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V9" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W9" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X9" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y9" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1161.477248062164</v>
+        <v>581.9890643951119</v>
       </c>
       <c r="C10" t="n">
-        <v>989.5046849410799</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="D10" t="n">
-        <v>826.1879120678506</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="E10" t="n">
-        <v>659.9797062207041</v>
+        <v>410.0165012740279</v>
       </c>
       <c r="F10" t="n">
-        <v>488.1179319952645</v>
+        <v>238.1547270485883</v>
       </c>
       <c r="G10" t="n">
-        <v>321.8609622894966</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H10" t="n">
-        <v>178.064693797651</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I10" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J10" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K10" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L10" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M10" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N10" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O10" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P10" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q10" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R10" t="n">
-        <v>2258.709152951055</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="S10" t="n">
-        <v>2258.709152951055</v>
+        <v>2205.272171443122</v>
       </c>
       <c r="T10" t="n">
-        <v>2258.709152951055</v>
+        <v>1961.932823669022</v>
       </c>
       <c r="U10" t="n">
-        <v>2258.709152951055</v>
+        <v>1681.748375169326</v>
       </c>
       <c r="V10" t="n">
-        <v>2095.402285466169</v>
+        <v>1400.036907777355</v>
       </c>
       <c r="W10" t="n">
-        <v>1820.549881638682</v>
+        <v>1241.06169797163</v>
       </c>
       <c r="X10" t="n">
-        <v>1577.985985084488</v>
+        <v>998.4978014174355</v>
       </c>
       <c r="Y10" t="n">
-        <v>1351.64321677423</v>
+        <v>772.1550331071776</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2320.411228853706</v>
+        <v>1661.879739374708</v>
       </c>
       <c r="C11" t="n">
-        <v>1893.510498867006</v>
+        <v>1234.979009388008</v>
       </c>
       <c r="D11" t="n">
-        <v>1470.217878052007</v>
+        <v>1234.979009388008</v>
       </c>
       <c r="E11" t="n">
-        <v>1044.240938199864</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="F11" t="n">
-        <v>619.1167563892643</v>
+        <v>809.0020695358658</v>
       </c>
       <c r="G11" t="n">
-        <v>214.7776939787129</v>
+        <v>404.6630071253144</v>
       </c>
       <c r="H11" t="n">
-        <v>78.29612553792698</v>
+        <v>106.7946285993492</v>
       </c>
       <c r="I11" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J11" t="n">
-        <v>78.29612553792698</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K11" t="n">
-        <v>793.804433513426</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L11" t="n">
-        <v>936.3823145515796</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M11" t="n">
-        <v>936.3823145515796</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="N11" t="n">
-        <v>1905.296868083426</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O11" t="n">
-        <v>2750.441518234238</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P11" t="n">
-        <v>3458.720797392166</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q11" t="n">
-        <v>3914.806276896349</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R11" t="n">
-        <v>3914.806276896349</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S11" t="n">
-        <v>3914.806276896349</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T11" t="n">
-        <v>3914.806276896349</v>
+        <v>3269.595002058795</v>
       </c>
       <c r="U11" t="n">
-        <v>3914.806276896349</v>
+        <v>3011.240092655207</v>
       </c>
       <c r="V11" t="n">
-        <v>3557.316862022599</v>
+        <v>2653.750677781457</v>
       </c>
       <c r="W11" t="n">
-        <v>3557.316862022599</v>
+        <v>2257.359328081804</v>
       </c>
       <c r="X11" t="n">
-        <v>3145.596863190346</v>
+        <v>2081.728103666238</v>
       </c>
       <c r="Y11" t="n">
-        <v>2740.259593145237</v>
+        <v>2081.728103666238</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C12" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D12" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E12" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F12" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G12" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H12" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.29612553792698</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J12" t="n">
-        <v>78.29612553792698</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K12" t="n">
-        <v>78.29612553792698</v>
+        <v>669.8293268730719</v>
       </c>
       <c r="L12" t="n">
-        <v>78.29612553792698</v>
+        <v>669.8293268730719</v>
       </c>
       <c r="M12" t="n">
-        <v>78.29612553792698</v>
+        <v>669.8293268730719</v>
       </c>
       <c r="N12" t="n">
-        <v>1047.210679069774</v>
+        <v>909.0847998271554</v>
       </c>
       <c r="O12" t="n">
-        <v>1047.210679069774</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P12" t="n">
-        <v>1763.408396108272</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q12" t="n">
-        <v>1886.983756118437</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R12" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S12" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T12" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U12" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V12" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W12" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X12" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y12" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>302.375191087591</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C13" t="n">
-        <v>130.402627966507</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D13" t="n">
-        <v>78.29612553792698</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E13" t="n">
-        <v>78.29612553792698</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F13" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G13" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H13" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I13" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J13" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K13" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L13" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M13" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N13" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O13" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P13" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q13" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R13" t="n">
-        <v>2211.670539638229</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S13" t="n">
-        <v>2041.535492157363</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T13" t="n">
-        <v>1798.196144383263</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U13" t="n">
-        <v>1518.011695883568</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V13" t="n">
-        <v>1236.300228491596</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W13" t="n">
-        <v>961.4478246641095</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X13" t="n">
-        <v>718.8839281099146</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y13" t="n">
-        <v>492.5411597996566</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2218.826531669449</v>
+        <v>2253.61493984527</v>
       </c>
       <c r="C14" t="n">
-        <v>1791.925801682749</v>
+        <v>1826.71420985857</v>
       </c>
       <c r="D14" t="n">
-        <v>1368.633180867749</v>
+        <v>1403.42158904357</v>
       </c>
       <c r="E14" t="n">
-        <v>942.656241015607</v>
+        <v>977.4446491914279</v>
       </c>
       <c r="F14" t="n">
-        <v>517.5320592050072</v>
+        <v>552.3204673808281</v>
       </c>
       <c r="G14" t="n">
-        <v>113.1929967944558</v>
+        <v>369.7661358687856</v>
       </c>
       <c r="H14" t="n">
-        <v>113.1929967944558</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I14" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J14" t="n">
-        <v>78.29612553792698</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K14" t="n">
-        <v>793.804433513426</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L14" t="n">
-        <v>1723.429481132703</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M14" t="n">
-        <v>2692.344034664549</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="N14" t="n">
-        <v>3661.258588196396</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O14" t="n">
-        <v>3914.806276896349</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P14" t="n">
-        <v>3914.806276896349</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q14" t="n">
-        <v>3914.806276896349</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R14" t="n">
-        <v>3914.806276896349</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S14" t="n">
-        <v>3810.438982769489</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="T14" t="n">
-        <v>3714.087074241929</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="U14" t="n">
-        <v>3455.732164838342</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="V14" t="n">
-        <v>3455.732164838342</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="W14" t="n">
-        <v>3455.732164838342</v>
+        <v>3490.520573014162</v>
       </c>
       <c r="X14" t="n">
-        <v>3044.012166006089</v>
+        <v>3078.800574181909</v>
       </c>
       <c r="Y14" t="n">
-        <v>2638.674895960979</v>
+        <v>2673.4633041368</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C15" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D15" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E15" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F15" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G15" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H15" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I15" t="n">
-        <v>78.29612553792698</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J15" t="n">
-        <v>78.29612553792698</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="K15" t="n">
-        <v>668.7810521062665</v>
+        <v>669.8293268730719</v>
       </c>
       <c r="L15" t="n">
-        <v>668.7810521062665</v>
+        <v>669.8293268730719</v>
       </c>
       <c r="M15" t="n">
-        <v>668.7810521062665</v>
+        <v>669.8293268730719</v>
       </c>
       <c r="N15" t="n">
-        <v>1637.695605638113</v>
+        <v>909.0847998271554</v>
       </c>
       <c r="O15" t="n">
-        <v>1886.983756118437</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P15" t="n">
-        <v>1886.983756118437</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q15" t="n">
-        <v>1886.983756118437</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R15" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S15" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T15" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U15" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V15" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W15" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X15" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y15" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1161.477248062164</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C16" t="n">
-        <v>989.5046849410799</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D16" t="n">
-        <v>826.1879120678506</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E16" t="n">
-        <v>659.9797062207041</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F16" t="n">
-        <v>488.1179319952645</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G16" t="n">
-        <v>321.8609622894966</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H16" t="n">
-        <v>178.064693797651</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I16" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J16" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K16" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L16" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M16" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N16" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O16" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P16" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q16" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R16" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S16" t="n">
-        <v>2258.709152951055</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T16" t="n">
-        <v>2258.709152951055</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U16" t="n">
-        <v>2258.709152951055</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V16" t="n">
-        <v>2095.402285466169</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W16" t="n">
-        <v>1820.549881638682</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X16" t="n">
-        <v>1577.985985084488</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y16" t="n">
-        <v>1351.64321677423</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>464.906172222724</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690842</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5591,25 +5591,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>357.9938188649342</v>
       </c>
       <c r="L18" t="n">
-        <v>855.0038060102931</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>841.6494985835418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>841.6494985835418</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>678.3327257103125</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>512.124519863166</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1258.158235605865</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1258.158235605865</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.815467295608</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883224</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623582</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N20" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4573.117879057176</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>374.0002026854196</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M21" t="n">
-        <v>374.0002026854196</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N21" t="n">
-        <v>1463.315149158289</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1463.315149158289</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.7597400424195</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>444.7871769213355</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>281.4704040481062</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>268.5596831115964</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
         <v>102.3027134058285</v>
@@ -5910,10 +5910,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
@@ -5937,25 +5937,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>2112.580693338092</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1832.396244838396</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1550.684777446425</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>1275.832373618938</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>1033.268477064743</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>806.9257087544852</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C23" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D23" t="n">
         <v>1690.508147261616</v>
@@ -5977,49 +5977,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F23" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G23" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H23" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I23" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N23" t="n">
-        <v>3561.711740982686</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O23" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S23" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T23" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U23" t="n">
         <v>4531.487895805612</v>
@@ -6068,22 +6068,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>964.4851292537592</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3270.011978872611</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>3098.039415751527</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>2934.722642878298</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>2934.722642878298</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J25" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K25" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L25" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M25" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N25" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O25" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P25" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>5009.172279942383</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>4765.832932168283</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>4485.648483668588</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>4203.937016276616</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>3929.08461244913</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>3686.520715894935</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>3460.177947584677</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C26" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D26" t="n">
         <v>1690.508147261616</v>
@@ -6214,49 +6214,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F26" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G26" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H26" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I26" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596601</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S26" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T26" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U26" t="n">
         <v>4531.487895805612</v>
@@ -6302,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O27" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>409.4157547709034</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>409.4157547709034</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>246.0989818976742</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6384,10 +6384,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J28" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K28" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L28" t="n">
         <v>741.0109641302445</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,49 +6451,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747413</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S29" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T29" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U29" t="n">
         <v>4531.487895805612</v>
@@ -6539,31 +6539,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M30" t="n">
-        <v>102.3027134058285</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3688.378786682159</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>3817.874342004481</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>3688.378786682159</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>3688.378786682159</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C32" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D32" t="n">
         <v>1690.508147261616</v>
@@ -6688,49 +6688,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F32" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G32" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H32" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I32" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576507</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076927</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982686</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.856391133499</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S32" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T32" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U32" t="n">
         <v>4531.487895805612</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3873.571530742372</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C33" t="n">
-        <v>3756.065627259877</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D33" t="n">
-        <v>3652.225668775162</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E33" t="n">
-        <v>3547.5237350481</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F33" t="n">
-        <v>3453.877904731004</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G33" t="n">
-        <v>3359.824132948608</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H33" t="n">
-        <v>3306.448039710918</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>3306.448039710918</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>3306.448039710918</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>3306.448039710918</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>3306.448039710918</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>4025.820723818556</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N33" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O33" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P33" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q33" t="n">
-        <v>5115.135670291426</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R33" t="n">
-        <v>5115.135670291426</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S33" t="n">
-        <v>5033.811422852681</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T33" t="n">
-        <v>4891.931487150359</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U33" t="n">
-        <v>4707.163291069996</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V33" t="n">
-        <v>4502.190152209263</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W33" t="n">
-        <v>4305.66877504248</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X33" t="n">
-        <v>4142.191428809143</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y33" t="n">
-        <v>4002.498540162435</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4017.903765402535</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>3845.931202281451</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>3682.614429408221</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J34" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K34" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L34" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M34" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N34" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O34" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P34" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q34" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>4897.962009497734</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>4654.622661723634</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>4374.438213223939</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>4092.726745831968</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>4017.903765402535</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>4017.903765402535</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>4017.903765402535</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>3375.06837974776</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>4220.213029898572</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291426</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402535</v>
+        <v>612.3452565994986</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281451</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408221</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561075</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335635</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138022</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878298</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102456</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308293</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602714</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572965</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128764</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291426</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>5068.0970569786</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>4824.757709204499</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>4824.757709204499</v>
+        <v>1827.981761395475</v>
       </c>
       <c r="V37" t="n">
-        <v>4543.046241812528</v>
+        <v>1546.270294003504</v>
       </c>
       <c r="W37" t="n">
-        <v>4543.046241812528</v>
+        <v>1271.417890176017</v>
       </c>
       <c r="X37" t="n">
-        <v>4434.412502424859</v>
+        <v>1028.853993621822</v>
       </c>
       <c r="Y37" t="n">
-        <v>4208.069734114601</v>
+        <v>802.5112253115642</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7162,19 +7162,19 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G38" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I38" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
@@ -7192,19 +7192,19 @@
         <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4997.579335409523</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409523</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7250,19 +7250,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J39" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K39" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L39" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>326.3817789554925</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7356,28 +7356,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1340.37210466824</v>
+        <v>1961.590884272476</v>
       </c>
       <c r="C41" t="n">
-        <v>913.4713746815398</v>
+        <v>1534.690154285776</v>
       </c>
       <c r="D41" t="n">
-        <v>836.1855571310207</v>
+        <v>1111.397533470776</v>
       </c>
       <c r="E41" t="n">
-        <v>836.1855571310207</v>
+        <v>685.4205936186339</v>
       </c>
       <c r="F41" t="n">
-        <v>411.061375320421</v>
+        <v>260.2964118080341</v>
       </c>
       <c r="G41" t="n">
-        <v>411.061375320421</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H41" t="n">
-        <v>113.1929967944558</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I41" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J41" t="n">
-        <v>78.29612553792698</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K41" t="n">
-        <v>78.29612553792698</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L41" t="n">
-        <v>305.9969056420136</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M41" t="n">
-        <v>1274.91145917386</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="N41" t="n">
-        <v>2243.826012705706</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O41" t="n">
-        <v>3088.970662856519</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P41" t="n">
-        <v>3797.249942014446</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q41" t="n">
-        <v>3797.249942014446</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R41" t="n">
-        <v>3914.806276896349</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S41" t="n">
-        <v>3810.438982769489</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T41" t="n">
-        <v>3589.513411814123</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U41" t="n">
-        <v>3331.158502410535</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V41" t="n">
-        <v>2973.669087536785</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W41" t="n">
-        <v>2577.277737837132</v>
+        <v>3198.496517441368</v>
       </c>
       <c r="X41" t="n">
-        <v>2165.557739004879</v>
+        <v>2786.776518609116</v>
       </c>
       <c r="Y41" t="n">
-        <v>1760.22046895977</v>
+        <v>2381.439248564006</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C42" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D42" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E42" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F42" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G42" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H42" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I42" t="n">
-        <v>78.29612553792698</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J42" t="n">
-        <v>78.29612553792698</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K42" t="n">
-        <v>78.29612553792698</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L42" t="n">
-        <v>78.29612553792698</v>
+        <v>1778.325624235569</v>
       </c>
       <c r="M42" t="n">
-        <v>1047.210679069774</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="N42" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="O42" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="P42" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="Q42" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="R42" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S42" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T42" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U42" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V42" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W42" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X42" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y42" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>302.375191087591</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C43" t="n">
-        <v>130.402627966507</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D43" t="n">
-        <v>78.29612553792698</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E43" t="n">
-        <v>78.29612553792698</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F43" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G43" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H43" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I43" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J43" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K43" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L43" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M43" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N43" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O43" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P43" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q43" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R43" t="n">
-        <v>2211.670539638229</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S43" t="n">
-        <v>2041.535492157363</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T43" t="n">
-        <v>1798.196144383263</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U43" t="n">
-        <v>1518.011695883568</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V43" t="n">
-        <v>1236.300228491596</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W43" t="n">
-        <v>961.4478246641095</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X43" t="n">
-        <v>718.8839281099146</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y43" t="n">
-        <v>492.5411597996566</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2269.925033131739</v>
+        <v>2177.531292217814</v>
       </c>
       <c r="C44" t="n">
-        <v>1843.024303145039</v>
+        <v>1750.630562231114</v>
       </c>
       <c r="D44" t="n">
-        <v>1419.731682330039</v>
+        <v>1327.337941416114</v>
       </c>
       <c r="E44" t="n">
-        <v>1240.524619541572</v>
+        <v>901.3610015639716</v>
       </c>
       <c r="F44" t="n">
-        <v>815.4004377309723</v>
+        <v>476.2368197533718</v>
       </c>
       <c r="G44" t="n">
-        <v>411.061375320421</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H44" t="n">
-        <v>113.1929967944558</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I44" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J44" t="n">
-        <v>440.8995843548225</v>
+        <v>434.501216159716</v>
       </c>
       <c r="K44" t="n">
-        <v>1156.407892330322</v>
+        <v>1150.009524135215</v>
       </c>
       <c r="L44" t="n">
-        <v>2086.032939949598</v>
+        <v>2039.744271252618</v>
       </c>
       <c r="M44" t="n">
-        <v>2828.3353884826</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="N44" t="n">
-        <v>3797.249942014446</v>
+        <v>2749.743216990209</v>
       </c>
       <c r="O44" t="n">
-        <v>3797.249942014446</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="P44" t="n">
-        <v>3797.249942014446</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="Q44" t="n">
-        <v>3797.249942014446</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="R44" t="n">
-        <v>3914.806276896349</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="S44" t="n">
-        <v>3914.806276896349</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="T44" t="n">
-        <v>3693.880705940982</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="U44" t="n">
-        <v>3435.525796537395</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="V44" t="n">
-        <v>3078.036381663645</v>
+        <v>3594.887867141022</v>
       </c>
       <c r="W44" t="n">
-        <v>2681.645031963992</v>
+        <v>3414.436925386706</v>
       </c>
       <c r="X44" t="n">
-        <v>2269.925033131739</v>
+        <v>3002.716926554453</v>
       </c>
       <c r="Y44" t="n">
-        <v>2269.925033131739</v>
+        <v>2597.379656509343</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>645.4196165693822</v>
+        <v>639.0212483742757</v>
       </c>
       <c r="C45" t="n">
-        <v>527.913713086887</v>
+        <v>521.5153448917805</v>
       </c>
       <c r="D45" t="n">
-        <v>424.073754602172</v>
+        <v>417.6753864070655</v>
       </c>
       <c r="E45" t="n">
-        <v>319.3718208751092</v>
+        <v>312.9734526800027</v>
       </c>
       <c r="F45" t="n">
-        <v>225.7259905580134</v>
+        <v>219.3276223629069</v>
       </c>
       <c r="G45" t="n">
-        <v>131.6722187756174</v>
+        <v>125.2738505805109</v>
       </c>
       <c r="H45" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I45" t="n">
-        <v>78.29612553792698</v>
+        <v>79.34440030473228</v>
       </c>
       <c r="J45" t="n">
-        <v>78.29612553792698</v>
+        <v>351.0418895843234</v>
       </c>
       <c r="K45" t="n">
-        <v>78.29612553792698</v>
+        <v>941.5268161526629</v>
       </c>
       <c r="L45" t="n">
-        <v>78.29612553792698</v>
+        <v>1778.325624235569</v>
       </c>
       <c r="M45" t="n">
-        <v>706.6405622171594</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="N45" t="n">
-        <v>706.6405622171594</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="O45" t="n">
-        <v>706.6405622171594</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="P45" t="n">
-        <v>1422.838279255657</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="Q45" t="n">
-        <v>1886.983756118437</v>
+        <v>1798.566077838627</v>
       </c>
       <c r="R45" t="n">
-        <v>1886.983756118437</v>
+        <v>1880.58538792333</v>
       </c>
       <c r="S45" t="n">
-        <v>1805.659508679691</v>
+        <v>1799.261140484585</v>
       </c>
       <c r="T45" t="n">
-        <v>1663.77957297737</v>
+        <v>1657.381204782263</v>
       </c>
       <c r="U45" t="n">
-        <v>1479.011376897006</v>
+        <v>1472.6130087019</v>
       </c>
       <c r="V45" t="n">
-        <v>1274.038238036272</v>
+        <v>1267.639869841166</v>
       </c>
       <c r="W45" t="n">
-        <v>1077.51686086949</v>
+        <v>1071.118492674383</v>
       </c>
       <c r="X45" t="n">
-        <v>914.0395146361526</v>
+        <v>907.6411464410461</v>
       </c>
       <c r="Y45" t="n">
-        <v>774.346625989445</v>
+        <v>767.9482577943385</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>422.1304628844506</v>
+        <v>415.732094689344</v>
       </c>
       <c r="C46" t="n">
-        <v>250.1578997633666</v>
+        <v>243.75953156826</v>
       </c>
       <c r="D46" t="n">
-        <v>250.1578997633666</v>
+        <v>243.75953156826</v>
       </c>
       <c r="E46" t="n">
-        <v>250.1578997633666</v>
+        <v>243.75953156826</v>
       </c>
       <c r="F46" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="G46" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="H46" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="I46" t="n">
-        <v>78.29612553792698</v>
+        <v>71.89775734282044</v>
       </c>
       <c r="J46" t="n">
-        <v>135.787453762085</v>
+        <v>129.3890855669785</v>
       </c>
       <c r="K46" t="n">
-        <v>362.3150549679222</v>
+        <v>355.9166867728156</v>
       </c>
       <c r="L46" t="n">
-        <v>717.0043762623429</v>
+        <v>710.6060080672364</v>
       </c>
       <c r="M46" t="n">
-        <v>1108.190171232594</v>
+        <v>1101.791803037487</v>
       </c>
       <c r="N46" t="n">
-        <v>1485.68168210863</v>
+        <v>1479.283313913523</v>
       </c>
       <c r="O46" t="n">
-        <v>1841.109810788393</v>
+        <v>1834.711442593286</v>
       </c>
       <c r="P46" t="n">
-        <v>2131.709022710294</v>
+        <v>2125.310654515187</v>
       </c>
       <c r="Q46" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="R46" t="n">
-        <v>2258.709152951055</v>
+        <v>2252.310784755949</v>
       </c>
       <c r="S46" t="n">
-        <v>2161.290763954223</v>
+        <v>2154.892395759116</v>
       </c>
       <c r="T46" t="n">
-        <v>1917.951416180123</v>
+        <v>1911.553047985016</v>
       </c>
       <c r="U46" t="n">
-        <v>1637.766967680427</v>
+        <v>1631.368599485321</v>
       </c>
       <c r="V46" t="n">
-        <v>1356.055500288456</v>
+        <v>1349.657132093349</v>
       </c>
       <c r="W46" t="n">
-        <v>1081.203096460969</v>
+        <v>1074.804728265862</v>
       </c>
       <c r="X46" t="n">
-        <v>838.6391999067741</v>
+        <v>832.2408317116676</v>
       </c>
       <c r="Y46" t="n">
-        <v>612.2964315965162</v>
+        <v>605.8980634014097</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
         <v>35.76460079480934</v>
@@ -7987,16 +7987,16 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N2" t="n">
-        <v>547.8252218830994</v>
+        <v>182.3161482577561</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>72.33713181853705</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
@@ -8075,13 +8075,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>98.17301358442491</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>758.5002654165255</v>
+        <v>531.9084489050081</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>936.1532296846872</v>
       </c>
       <c r="N5" t="n">
-        <v>674.9893610881851</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O5" t="n">
-        <v>891.0724241548241</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,19 +8300,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>227.574314522856</v>
+        <v>52.02835575029422</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>921.8187472975834</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>920.064994998797</v>
       </c>
       <c r="O6" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8458,13 +8458,13 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>905.0657687090397</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>1016.132832123519</v>
+        <v>548.733908339808</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>936.0015896197015</v>
       </c>
       <c r="O8" t="n">
         <v>891.0724241548241</v>
@@ -8476,7 +8476,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8540,19 +8540,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>402.5185988819078</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>1000.044597437629</v>
+        <v>842.9044234665809</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q9" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
         <v>23.67291939414415</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>182.3301040873235</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>754.6019151596252</v>
       </c>
       <c r="N11" t="n">
-        <v>1015.981192058533</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
@@ -8780,19 +8780,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>1000.044597437629</v>
+        <v>263.0152231166563</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>147.5706342588424</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
-        <v>977.3272420480539</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M14" t="n">
-        <v>1016.132832123519</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1015.981192058533</v>
+        <v>754.4502750946394</v>
       </c>
       <c r="O14" t="n">
-        <v>293.4997358206232</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>37.5753618102313</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9017,10 +9017,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>1000.044597437629</v>
+        <v>263.0152231166563</v>
       </c>
       <c r="O15" t="n">
-        <v>274.9781023286099</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
@@ -9029,7 +9029,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>586.4197136125397</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
         <v>1051.861668373228</v>
@@ -9181,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>273.1512161537311</v>
       </c>
       <c r="L18" t="n">
-        <v>782.8192206581333</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,7 +9260,7 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
@@ -9418,7 +9418,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>585.0680802286663</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9476,34 +9476,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N21" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>473.9680076978074</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,7 +9646,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>883.920771480625</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9655,7 +9655,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9716,25 +9716,25 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>255.148922768857</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
-        <v>1027.22025995478</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
         <v>1023.391803124043</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,19 +9950,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>400.8313794692496</v>
       </c>
       <c r="N27" t="n">
         <v>21.34302821354166</v>
@@ -9971,10 +9971,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>313.2411601358238</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10126,16 +10126,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O29" t="n">
-        <v>143.6953511146599</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N30" t="n">
-        <v>226.402256022168</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239227</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10366,7 +10366,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>753.0089771212694</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685286</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10451,7 +10451,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
@@ -10603,10 +10603,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286663</v>
+        <v>480.8452212937382</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>43.54168314167958</v>
       </c>
       <c r="N36" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10688,7 +10688,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>100.0581876036175</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q38" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>268.3128304165489</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M41" t="n">
-        <v>1016.132832123519</v>
+        <v>754.6019151596252</v>
       </c>
       <c r="N41" t="n">
-        <v>1015.981192058533</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,22 +11135,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>1001.798349736415</v>
+        <v>126.389471106026</v>
       </c>
       <c r="N42" t="n">
-        <v>869.5986615960297</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11302,16 +11302,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>977.3272420480539</v>
+        <v>937.0340092178783</v>
       </c>
       <c r="M44" t="n">
-        <v>787.2317159630702</v>
+        <v>754.6019151596252</v>
       </c>
       <c r="N44" t="n">
-        <v>1015.981192058533</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
         <v>37.5753618102313</v>
@@ -11320,7 +11320,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M45" t="n">
-        <v>657.7881306933709</v>
+        <v>43.54168314167935</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,13 +11393,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>337.429504480582</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.1543111380362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,13 +22704,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>149.2658243931644</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22719,13 +22719,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>106.4338286105155</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,13 +22752,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -22786,19 +22786,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>52.78422873511226</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
@@ -22843,10 +22843,10 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>336.1573811915252</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>136.2254319385018</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,19 +22992,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>129.0261359073657</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23032,16 +23032,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>274.6185117834895</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>136.5504975383688</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23184,10 +23184,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>114.7184220815449</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23263,22 +23263,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>159.7729419843274</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>233.7278866725198</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>164.5944000087102</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>219.5668835895238</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23548,10 +23548,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>123.3279258035286</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>117.2205539080143</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.9767848431159</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24132,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>151.7645100615303</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -24177,10 +24177,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24414,7 +24414,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>63.52994056050389</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.20363605725684</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>111.937657819554</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>198.0291291640731</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>236.5356156878674</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>132.5908555948604</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>47.1854451728326</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -25560,7 +25560,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25569,7 +25569,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>342.5467352318357</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>400.2956717864458</v>
+        <v>213.7810038658843</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>110.0981677402028</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>244.3021782930384</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>213.7810038658839</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26073,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>71.9894918991922</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440471.6979198889</v>
+        <v>578012.275640244</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>610130.8990018896</v>
+        <v>578012.275640244</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>610130.8990018895</v>
+        <v>578012.275640244</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>610130.8990018894</v>
+        <v>578012.2756402441</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>610130.8990018895</v>
+        <v>578012.2756402442</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730639.5240786816</v>
+        <v>730639.5240786815</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>730639.5240786816</v>
+        <v>730639.5240786815</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730639.5240786816</v>
+        <v>730639.5240786815</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730639.5240786816</v>
+        <v>730639.5240786815</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>730639.5240786814</v>
+        <v>730639.5240786815</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>610130.8990018896</v>
+        <v>578012.2756402441</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>610130.8990018896</v>
+        <v>578012.2756402441</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152470.9723568845</v>
+        <v>200081.1723370074</v>
       </c>
       <c r="C2" t="n">
-        <v>211199.1573468078</v>
+        <v>200081.1723370074</v>
       </c>
       <c r="D2" t="n">
-        <v>211199.1573468078</v>
+        <v>200081.1723370075</v>
       </c>
       <c r="E2" t="n">
-        <v>211199.1573468077</v>
+        <v>200081.1723370075</v>
       </c>
       <c r="F2" t="n">
-        <v>211199.1573468077</v>
+        <v>200081.1723370075</v>
       </c>
       <c r="G2" t="n">
         <v>252913.6814118513</v>
       </c>
       <c r="H2" t="n">
-        <v>252913.6814118511</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="I2" t="n">
-        <v>252913.6814118512</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="J2" t="n">
-        <v>252913.6814118512</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="K2" t="n">
         <v>252913.6814118513</v>
       </c>
       <c r="L2" t="n">
-        <v>252913.6814118512</v>
+        <v>252913.6814118513</v>
       </c>
       <c r="M2" t="n">
         <v>252913.6814118513</v>
@@ -26352,10 +26352,10 @@
         <v>252913.6814118513</v>
       </c>
       <c r="O2" t="n">
-        <v>211199.1573468079</v>
+        <v>200081.1723370075</v>
       </c>
       <c r="P2" t="n">
-        <v>211199.1573468077</v>
+        <v>200081.1723370075</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>186404.7334147372</v>
+        <v>301182.4016749751</v>
       </c>
       <c r="C3" t="n">
-        <v>136488.8862029676</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>82248.07044717245</v>
+        <v>104169.2797816197</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>145533.6699348165</v>
+        <v>235145.2102775613</v>
       </c>
       <c r="K3" t="n">
-        <v>108731.2256621307</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>458.4532502675966</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="C4" t="n">
-        <v>658.1886003676652</v>
+        <v>620.3761832340386</v>
       </c>
       <c r="D4" t="n">
-        <v>658.1886003676651</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="E4" t="n">
-        <v>658.1886003676652</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="F4" t="n">
-        <v>658.1886003676652</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="G4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="H4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="I4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="J4" t="n">
-        <v>800.0602599433671</v>
+        <v>800.0602599433672</v>
       </c>
       <c r="K4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="L4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="M4" t="n">
         <v>800.0602599433671</v>
       </c>
       <c r="N4" t="n">
-        <v>800.060259943367</v>
+        <v>800.0602599433671</v>
       </c>
       <c r="O4" t="n">
-        <v>658.1886003676652</v>
+        <v>620.3761832340385</v>
       </c>
       <c r="P4" t="n">
-        <v>658.1886003676652</v>
+        <v>620.3761832340385</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67446.25103742813</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="C5" t="n">
-        <v>93132.6554088245</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="D5" t="n">
-        <v>93132.6554088245</v>
+        <v>88269.89558054353</v>
       </c>
       <c r="E5" t="n">
-        <v>59505.0554088245</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="F5" t="n">
-        <v>59505.0554088245</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="J5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="K5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="L5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>59505.0554088245</v>
+        <v>54642.29558054353</v>
       </c>
       <c r="P5" t="n">
-        <v>59505.0554088245</v>
+        <v>54642.29558054353</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-101838.4653455484</v>
+        <v>-190336.0457032342</v>
       </c>
       <c r="C6" t="n">
-        <v>-19080.57286535198</v>
+        <v>110846.3559717408</v>
       </c>
       <c r="D6" t="n">
-        <v>117408.3133376157</v>
+        <v>110846.355971741</v>
       </c>
       <c r="E6" t="n">
-        <v>151035.9133376156</v>
+        <v>144473.955971741</v>
       </c>
       <c r="F6" t="n">
-        <v>151035.9133376156</v>
+        <v>144473.955971741</v>
       </c>
       <c r="G6" t="n">
-        <v>92115.48851630578</v>
+        <v>70143.24851967425</v>
       </c>
       <c r="H6" t="n">
-        <v>174363.5589634781</v>
+        <v>174312.528301294</v>
       </c>
       <c r="I6" t="n">
-        <v>174363.5589634782</v>
+        <v>174312.528301294</v>
       </c>
       <c r="J6" t="n">
-        <v>28829.88902866159</v>
+        <v>-60832.68197626738</v>
       </c>
       <c r="K6" t="n">
-        <v>65632.33330134759</v>
+        <v>174312.528301294</v>
       </c>
       <c r="L6" t="n">
-        <v>174363.5589634782</v>
+        <v>174312.528301294</v>
       </c>
       <c r="M6" t="n">
-        <v>174363.5589634782</v>
+        <v>174312.528301294</v>
       </c>
       <c r="N6" t="n">
-        <v>174363.5589634783</v>
+        <v>174312.5283012939</v>
       </c>
       <c r="O6" t="n">
-        <v>151035.9133376157</v>
+        <v>144473.9559717409</v>
       </c>
       <c r="P6" t="n">
-        <v>151035.9133376156</v>
+        <v>144473.955971741</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>978.7015692240873</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="D4" t="n">
-        <v>978.7015692240873</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="E4" t="n">
-        <v>978.7015692240873</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="F4" t="n">
-        <v>978.7015692240873</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26828,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>978.7015692240873</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="P4" t="n">
-        <v>978.7015692240873</v>
+        <v>898.7219667852554</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>556.2278131155941</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="C4" t="n">
-        <v>422.4737561084931</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>300.0823483487693</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155942</v>
+        <v>898.7219667852553</v>
       </c>
       <c r="K4" t="n">
-        <v>422.4737561084932</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>556.2278131155941</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="K4" t="n">
-        <v>422.4737561084931</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>300.0823483487693</v>
+        <v>380.0619507876014</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,16 +34707,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N2" t="n">
-        <v>510.5455990486534</v>
+        <v>145.0365254233101</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P2" t="n">
-        <v>556.2278131155941</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>556.2278131155941</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L3" t="n">
-        <v>556.2278131155941</v>
+        <v>49.82204510430748</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,13 +34795,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>75.42597529544641</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>722.7356646217162</v>
+        <v>496.1438481101987</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N5" t="n">
-        <v>637.709738253739</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O5" t="n">
-        <v>853.6814647988001</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>205.0592278086264</v>
+        <v>29.51326903606467</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O6" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35178,13 +35178,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>866.7537262764168</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>978.7015692240873</v>
+        <v>511.3026454403762</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="O8" t="n">
         <v>853.6814647988001</v>
@@ -35196,7 +35196,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>379.4218183695799</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>978.7015692240873</v>
+        <v>821.5613952530392</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q9" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>144.0180616547006</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>717.1706522601934</v>
       </c>
       <c r="N11" t="n">
-        <v>978.7015692240873</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35500,19 +35500,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>978.7015692240873</v>
+        <v>241.6721949031147</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>124.8235959698639</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
-        <v>939.015199615431</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M14" t="n">
-        <v>978.7015692240873</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>978.7015692240873</v>
+        <v>717.1706522601934</v>
       </c>
       <c r="O14" t="n">
-        <v>256.1087764645991</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>978.7015692240873</v>
+        <v>241.6721949031147</v>
       </c>
       <c r="O15" t="n">
-        <v>251.8062126063877</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,10 +35886,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>548.1076711799168</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
         <v>1014.430405473796</v>
@@ -35901,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>250.7519823203978</v>
       </c>
       <c r="L18" t="n">
-        <v>760.3041339439037</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
@@ -36138,7 +36138,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>547.4927184184349</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N21" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>452.1971664929787</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,7 +36366,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>846.4895085811933</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36375,7 +36375,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.6338360546274</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
-        <v>989.7889970553483</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
         <v>986.1121802895968</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>291.4703189309951</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36846,16 +36846,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O29" t="n">
-        <v>106.3043917586358</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,10 +37068,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291133</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37086,7 +37086,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>715.433615311038</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562006</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
@@ -37323,10 +37323,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184349</v>
+        <v>443.2698594835069</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>20.4449026293516</v>
       </c>
       <c r="N36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>62.4828257933862</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>230.0007879839259</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M41" t="n">
-        <v>978.7015692240873</v>
+        <v>717.1706522601934</v>
       </c>
       <c r="N41" t="n">
-        <v>978.7015692240873</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>978.7015692240873</v>
+        <v>103.292690593698</v>
       </c>
       <c r="N42" t="n">
-        <v>848.2556333824881</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38022,16 +38022,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>939.015199615431</v>
+        <v>898.7219667852554</v>
       </c>
       <c r="M44" t="n">
-        <v>749.8004530636384</v>
+        <v>717.1706522601934</v>
       </c>
       <c r="N44" t="n">
-        <v>978.7015692240873</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M45" t="n">
-        <v>634.6913501810429</v>
+        <v>20.44490262935137</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
